--- a/Downloadable Files/Integrated API Specifications_20250217.xlsx
+++ b/Downloadable Files/Integrated API Specifications_20250217.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7920" tabRatio="852" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7920" tabRatio="852" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1661">
   <si>
     <t>PRMTR_NM</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -5634,11 +5634,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>Hash Key Verification fo Security 
-- outStatCd+trdDt+trdTm+mchtId+Hash Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Hash Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5731,11 +5726,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hash Key Verification for Security 
--trdDt+trdTm+mchtId+mchtTrdNo+remitAmt(plaintext)+Hash Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mandatory
 (≤1B KRW)</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -5887,6 +5877,21 @@
   </si>
   <si>
     <t>Must be requested in Upper Case letters(Error when requested in lower case)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Key Verification for Security 
+- outStatCd+trdDt+trdTm+mchtId+mchtTrdNo+sellAmt OR buyAmt(remitAmt for RMT(USD) and RMT(KRW)(plain text)+Hash Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Key Verification for Security 
+-outStatCd+trdDt+trdTm+mchtId+mchtTrdNo+remitAmt(plaintext)+Hash Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Key Verification fo Security 
+- outStatCd+trdDt+trdTm+mchtId+mchtTrdno+Hash Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7943,7 +7948,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F30:F31"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8542,8 +8547,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -8688,7 +8693,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="143" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -8859,7 +8864,7 @@
     </row>
     <row r="26" spans="2:6" ht="85.5" customHeight="1">
       <c r="B26" s="183" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C26" s="184"/>
       <c r="D26" s="184"/>
@@ -9201,7 +9206,7 @@
       <c r="E22" s="185"/>
       <c r="F22" s="185"/>
     </row>
-    <row r="23" spans="2:6" ht="81.5" customHeight="1">
+    <row r="23" spans="2:6" ht="81.650000000000006" customHeight="1">
       <c r="B23" s="183" t="s">
         <v>503</v>
       </c>
@@ -14396,8 +14401,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14494,7 +14499,7 @@
         <v>45281</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="43.5">
@@ -14576,24 +14581,24 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="17" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C17" s="76">
         <v>45667</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="17" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C18" s="76">
         <v>45700</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -14678,8 +14683,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -14815,7 +14820,7 @@
     </row>
     <row r="13" spans="1:8" s="73" customFormat="1" ht="34.5" customHeight="1">
       <c r="B13" s="181" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C13" s="182"/>
       <c r="D13" s="182"/>
@@ -14829,25 +14834,25 @@
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
       <c r="B15" s="179" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C15" s="180"/>
       <c r="D15" s="175" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E15" s="176"/>
     </row>
     <row r="16" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="B16" s="165" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C16" s="166"/>
       <c r="D16" s="167" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E16" s="168"/>
     </row>
-    <row r="17" spans="2:5" s="140" customFormat="1" ht="27.5" customHeight="1" thickBot="1">
+    <row r="17" spans="2:5" s="140" customFormat="1" ht="27.65" customHeight="1" thickBot="1">
       <c r="B17" s="141"/>
       <c r="C17" s="141"/>
       <c r="D17" s="142"/>
@@ -15030,8 +15035,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15094,7 +15099,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="16">
@@ -15129,7 +15134,7 @@
         <v>1611</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16">
@@ -15209,9 +15214,9 @@
       <c r="E14" s="185"/>
       <c r="F14" s="185"/>
     </row>
-    <row r="15" spans="2:7" s="30" customFormat="1" ht="68" customHeight="1">
+    <row r="15" spans="2:7" s="30" customFormat="1" ht="68.150000000000006" customHeight="1">
       <c r="B15" s="183" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C15" s="184"/>
       <c r="D15" s="184"/>
@@ -15392,7 +15397,7 @@
         <v>1611</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>1612</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="30" customFormat="1" ht="16">
@@ -15547,7 +15552,7 @@
     </row>
     <row r="38" spans="2:6" s="30" customFormat="1" ht="152.5" customHeight="1">
       <c r="B38" s="183" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C38" s="184"/>
       <c r="D38" s="184"/>
@@ -15580,8 +15585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -15746,7 +15751,7 @@
       <c r="E13" s="61"/>
       <c r="F13" s="60"/>
     </row>
-    <row r="14" spans="2:6" ht="21.5" customHeight="1">
+    <row r="14" spans="2:6" ht="21.65" customHeight="1">
       <c r="B14" s="185" t="s">
         <v>137</v>
       </c>
@@ -15773,7 +15778,7 @@
       <c r="E16" s="184"/>
       <c r="F16" s="184"/>
     </row>
-    <row r="17" spans="2:6" ht="57.5" customHeight="1">
+    <row r="17" spans="2:6" ht="57.65" customHeight="1">
       <c r="B17" s="183" t="s">
         <v>437</v>
       </c>
@@ -15954,7 +15959,7 @@
     </row>
     <row r="31" spans="2:6" ht="16">
       <c r="B31" s="185" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="C31" s="185"/>
       <c r="D31" s="185"/>
@@ -15999,8 +16004,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:I80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -16192,12 +16197,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="73" customFormat="1" ht="48">
+    <row r="12" spans="2:9" s="73" customFormat="1" ht="32">
       <c r="B12" s="64" t="s">
         <v>1606</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D12" s="66">
         <v>64</v>
@@ -16209,13 +16214,13 @@
         <v>72</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H12" s="66" t="s">
         <v>72</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16">
@@ -16284,7 +16289,7 @@
       </c>
       <c r="I15" s="77"/>
     </row>
-    <row r="16" spans="2:9" ht="48">
+    <row r="16" spans="2:9" ht="32">
       <c r="B16" s="69" t="s">
         <v>207</v>
       </c>
@@ -16398,7 +16403,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="48">
+    <row r="21" spans="2:9" ht="32">
       <c r="B21" s="62" t="s">
         <v>221</v>
       </c>
@@ -16441,7 +16446,7 @@
         <v>71</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16">
@@ -16692,7 +16697,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="63.5" customHeight="1">
+    <row r="34" spans="2:9" ht="63.65" customHeight="1">
       <c r="B34" s="31" t="s">
         <v>40</v>
       </c>
@@ -16764,9 +16769,9 @@
       <c r="H38" s="185"/>
       <c r="I38" s="185"/>
     </row>
-    <row r="39" spans="2:9" ht="144.5" customHeight="1">
+    <row r="39" spans="2:9" ht="144.65" customHeight="1">
       <c r="B39" s="183" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C39" s="184"/>
       <c r="D39" s="184"/>
@@ -16778,7 +16783,7 @@
     </row>
     <row r="41" spans="2:9" ht="16">
       <c r="B41" s="2" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C41" s="73"/>
     </row>
@@ -17034,12 +17039,12 @@
       </c>
       <c r="I51" s="65"/>
     </row>
-    <row r="52" spans="2:9" s="73" customFormat="1" ht="48">
+    <row r="52" spans="2:9" s="73" customFormat="1" ht="32">
       <c r="B52" s="64" t="s">
         <v>1606</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D52" s="66">
         <v>64</v>
@@ -17051,13 +17056,13 @@
         <v>72</v>
       </c>
       <c r="G52" s="66" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H52" s="66" t="s">
         <v>72</v>
       </c>
       <c r="I52" s="55" t="s">
-        <v>1626</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="16">
@@ -17126,7 +17131,7 @@
       </c>
       <c r="I55" s="77"/>
     </row>
-    <row r="56" spans="2:9" ht="48">
+    <row r="56" spans="2:9" ht="32">
       <c r="B56" s="69" t="s">
         <v>64</v>
       </c>
@@ -17281,7 +17286,7 @@
         <v>71</v>
       </c>
       <c r="I62" s="65" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="16">
@@ -17583,9 +17588,9 @@
       <c r="H77" s="185"/>
       <c r="I77" s="185"/>
     </row>
-    <row r="78" spans="2:9" ht="198.5" customHeight="1">
+    <row r="78" spans="2:9" ht="198.65" customHeight="1">
       <c r="B78" s="183" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C78" s="184"/>
       <c r="D78" s="184"/>
@@ -17628,19 +17633,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:G51"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.296875" style="73" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.09765625" style="73" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.296875" style="73" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.09765625" style="73" customWidth="1"/>
     <col min="6" max="6" width="15.59765625" style="73" customWidth="1"/>
-    <col min="7" max="7" width="67.19921875" style="73" customWidth="1"/>
+    <col min="7" max="7" width="70.796875" style="73" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.8984375" style="73" customWidth="1"/>
     <col min="9" max="9" width="19" style="73" customWidth="1"/>
     <col min="10" max="16384" width="9.09765625" style="73"/>
@@ -17686,7 +17691,7 @@
         <v>983</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F6" s="109" t="s">
         <v>1605</v>
@@ -17795,10 +17800,10 @@
     </row>
     <row r="12" spans="2:9" ht="32">
       <c r="B12" s="64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C12" s="65" t="s">
         <v>1628</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>1629</v>
       </c>
       <c r="D12" s="66">
         <v>64</v>
@@ -17810,7 +17815,7 @@
         <v>1611</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16">
@@ -17983,7 +17988,7 @@
     </row>
     <row r="22" spans="2:7" ht="16">
       <c r="B22" s="185" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C22" s="185"/>
       <c r="D22" s="185"/>
@@ -17993,7 +17998,7 @@
     </row>
     <row r="23" spans="2:7" ht="67.5" customHeight="1">
       <c r="B23" s="183" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C23" s="184"/>
       <c r="D23" s="184"/>
@@ -18011,7 +18016,7 @@
     </row>
     <row r="25" spans="2:7" ht="16">
       <c r="B25" s="185" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C25" s="185"/>
       <c r="D25" s="185"/>
@@ -18021,7 +18026,7 @@
     </row>
     <row r="26" spans="2:7" ht="76.5" customHeight="1">
       <c r="B26" s="183" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C26" s="184"/>
       <c r="D26" s="184"/>
@@ -18031,7 +18036,7 @@
     </row>
     <row r="28" spans="2:7" ht="16">
       <c r="B28" s="2" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="27" customHeight="1">
@@ -18045,7 +18050,7 @@
         <v>977</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F29" s="109" t="s">
         <v>1605</v>
@@ -18226,12 +18231,12 @@
       </c>
       <c r="G38" s="65"/>
     </row>
-    <row r="39" spans="2:7" ht="32">
+    <row r="39" spans="2:7" ht="64">
       <c r="B39" s="64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C39" s="65" t="s">
         <v>1628</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>1629</v>
       </c>
       <c r="D39" s="66">
         <v>64</v>
@@ -18243,7 +18248,7 @@
         <v>1611</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>1630</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="16">
@@ -18422,7 +18427,7 @@
     </row>
     <row r="50" spans="2:7" ht="16">
       <c r="B50" s="185" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C50" s="185"/>
       <c r="D50" s="185"/>
@@ -18432,7 +18437,7 @@
     </row>
     <row r="51" spans="2:7" ht="148.5" customHeight="1">
       <c r="B51" s="183" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C51" s="184"/>
       <c r="D51" s="184"/>
@@ -18482,15 +18487,15 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:F29"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.09765625" style="30" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="30" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.09765625" style="59" customWidth="1"/>
     <col min="6" max="6" width="53.69921875" style="30" customWidth="1"/>
@@ -18583,10 +18588,10 @@
     </row>
     <row r="9" spans="2:7" s="73" customFormat="1" ht="32">
       <c r="B9" s="64" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D9" s="66">
         <v>64</v>
@@ -18595,7 +18600,7 @@
         <v>72</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16">
@@ -18631,7 +18636,7 @@
     </row>
     <row r="13" spans="2:7" ht="55.5" customHeight="1">
       <c r="B13" s="183" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C13" s="184"/>
       <c r="D13" s="184"/>
@@ -18640,7 +18645,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="143" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -18807,7 +18812,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="96">
@@ -18845,7 +18850,7 @@
     </row>
     <row r="29" spans="2:6" ht="106" customHeight="1">
       <c r="B29" s="183" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C29" s="184"/>
       <c r="D29" s="184"/>
@@ -18922,7 +18927,7 @@
       <c r="E37" s="198"/>
       <c r="F37" s="198"/>
     </row>
-    <row r="38" spans="2:6" ht="17" customHeight="1">
+    <row r="38" spans="2:6" ht="17.149999999999999" customHeight="1">
       <c r="B38" s="197" t="s">
         <v>291</v>
       </c>
@@ -18931,7 +18936,7 @@
       <c r="E38" s="198"/>
       <c r="F38" s="198"/>
     </row>
-    <row r="39" spans="2:6" ht="30.5" customHeight="1">
+    <row r="39" spans="2:6" ht="30.65" customHeight="1">
       <c r="B39" s="197" t="s">
         <v>1591</v>
       </c>
@@ -18940,7 +18945,7 @@
       <c r="E39" s="198"/>
       <c r="F39" s="198"/>
     </row>
-    <row r="40" spans="2:6" ht="39.5" customHeight="1">
+    <row r="40" spans="2:6" ht="39.65" customHeight="1">
       <c r="B40" s="197" t="s">
         <v>1592</v>
       </c>
@@ -18949,7 +18954,7 @@
       <c r="E40" s="198"/>
       <c r="F40" s="198"/>
     </row>
-    <row r="41" spans="2:6" ht="32" customHeight="1">
+    <row r="41" spans="2:6" ht="32.15" customHeight="1">
       <c r="B41" s="197" t="s">
         <v>1593</v>
       </c>
@@ -19019,15 +19024,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="26.59765625" customWidth="1"/>
     <col min="3" max="3" width="26.09765625" customWidth="1"/>
-    <col min="6" max="6" width="65.5" customWidth="1"/>
+    <col min="6" max="6" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -19116,7 +19121,7 @@
         <v>72</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
@@ -19137,10 +19142,10 @@
       <c r="E9" s="185"/>
       <c r="F9" s="185"/>
     </row>
-    <row r="10" spans="1:6" ht="30.5" customHeight="1">
+    <row r="10" spans="1:6" ht="30.65" customHeight="1">
       <c r="A10" s="73"/>
       <c r="B10" s="183" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C10" s="184"/>
       <c r="D10" s="184"/>
@@ -19158,7 +19163,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="73"/>
       <c r="B12" s="143" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="73"/>
@@ -19307,10 +19312,10 @@
     </row>
     <row r="21" spans="1:6" s="73" customFormat="1" ht="32">
       <c r="B21" s="64" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D21" s="66">
         <v>64</v>
@@ -19319,7 +19324,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16">
@@ -19377,7 +19382,7 @@
     <row r="26" spans="1:6" ht="105" customHeight="1">
       <c r="A26" s="73"/>
       <c r="B26" s="183" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C26" s="184"/>
       <c r="D26" s="184"/>

--- a/Downloadable Files/Integrated API Specifications_20250217.xlsx
+++ b/Downloadable Files/Integrated API Specifications_20250217.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7920" tabRatio="852" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7920" tabRatio="852" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -3932,9 +3932,6 @@
     <t>Nomura Financial Investment</t>
   </si>
   <si>
-    <t>Shinhan Financial Investment</t>
-  </si>
-  <si>
     <t>Woori Investment &amp; Securities</t>
   </si>
   <si>
@@ -5892,6 +5889,10 @@
   <si>
     <t>Hash Key Verification fo Security 
 - outStatCd+trdDt+trdTm+mchtId+mchtTrdno+Hash Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shinhan Securities</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7145,36 +7146,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7187,30 +7206,12 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7235,6 +7236,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7253,29 +7278,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7284,15 +7294,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8693,7 +8694,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="143" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -8864,7 +8865,7 @@
     </row>
     <row r="26" spans="2:6" ht="85.5" customHeight="1">
       <c r="B26" s="183" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C26" s="184"/>
       <c r="D26" s="184"/>
@@ -8935,7 +8936,7 @@
       </c>
       <c r="C3" s="186"/>
       <c r="D3" s="187" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E3" s="188"/>
       <c r="F3" s="189"/>
@@ -8944,13 +8945,13 @@
       <c r="I3" s="73"/>
     </row>
     <row r="4" spans="2:9" s="32" customFormat="1" ht="24" customHeight="1">
-      <c r="B4" s="205" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="B4" s="208" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="210"/>
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
@@ -9238,13 +9239,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="68.5" customHeight="1">
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="205" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="210"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="207"/>
     </row>
     <row r="28" spans="2:6" ht="16">
       <c r="B28" s="8"/>
@@ -9321,6 +9322,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B30:F30"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B22:F22"/>
@@ -9329,12 +9336,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9413,7 +9414,7 @@
         <v>960</v>
       </c>
       <c r="C6" s="136" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D6" s="137" t="s">
         <v>961</v>
@@ -9633,15 +9634,15 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="106" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B2" s="211" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.5" thickBot="1">
       <c r="A3" s="107" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B3" s="212"/>
     </row>
@@ -10135,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E354"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -10151,16 +10152,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17">
       <c r="B2" s="118" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C2" s="118" t="s">
         <v>1275</v>
       </c>
-      <c r="C2" s="118" t="s">
-        <v>1276</v>
-      </c>
       <c r="D2" s="118" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E2" s="118" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="17">
@@ -10171,7 +10172,7 @@
         <v>1035</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E3" s="115"/>
     </row>
@@ -10180,10 +10181,10 @@
         <v>958</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E4" s="115"/>
     </row>
@@ -10195,7 +10196,7 @@
         <v>1036</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E5" s="115"/>
     </row>
@@ -10207,7 +10208,7 @@
         <v>1003</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E6" s="115"/>
     </row>
@@ -10219,7 +10220,7 @@
         <v>1004</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E7" s="115"/>
     </row>
@@ -10231,7 +10232,7 @@
         <v>1037</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E8" s="115"/>
     </row>
@@ -10240,25 +10241,25 @@
         <v>953</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E9" s="115"/>
     </row>
     <row r="10" spans="2:5" ht="17">
       <c r="B10" s="116" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C10" s="127" t="s">
         <v>1597</v>
       </c>
-      <c r="C10" s="127" t="s">
-        <v>1598</v>
-      </c>
       <c r="D10" s="115" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E10" s="115" t="s">
         <v>1600</v>
-      </c>
-      <c r="E10" s="115" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17">
@@ -10269,7 +10270,7 @@
         <v>1038</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E11" s="115"/>
     </row>
@@ -10278,10 +10279,10 @@
         <v>951</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E12" s="115"/>
     </row>
@@ -10293,7 +10294,7 @@
         <v>1039</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E13" s="115"/>
     </row>
@@ -10305,7 +10306,7 @@
         <v>1040</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E14" s="115"/>
     </row>
@@ -10317,7 +10318,7 @@
         <v>1041</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E15" s="115"/>
     </row>
@@ -10329,7 +10330,7 @@
         <v>1042</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E16" s="115"/>
     </row>
@@ -10341,7 +10342,7 @@
         <v>1043</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E17" s="115"/>
     </row>
@@ -10350,10 +10351,10 @@
         <v>945</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D18" s="115" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E18" s="115"/>
     </row>
@@ -10365,7 +10366,7 @@
         <v>1044</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E19" s="115"/>
     </row>
@@ -10377,7 +10378,7 @@
         <v>1045</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E20" s="115"/>
     </row>
@@ -10389,7 +10390,7 @@
         <v>1046</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E21" s="115"/>
     </row>
@@ -10401,7 +10402,7 @@
         <v>1047</v>
       </c>
       <c r="D22" s="115" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E22" s="115"/>
     </row>
@@ -10413,7 +10414,7 @@
         <v>1048</v>
       </c>
       <c r="D23" s="115" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E23" s="115"/>
     </row>
@@ -10425,7 +10426,7 @@
         <v>1049</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E24" s="115"/>
     </row>
@@ -10437,7 +10438,7 @@
         <v>1005</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E25" s="115"/>
     </row>
@@ -10461,7 +10462,7 @@
         <v>1006</v>
       </c>
       <c r="D27" s="115" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="115"/>
     </row>
@@ -10473,7 +10474,7 @@
         <v>1007</v>
       </c>
       <c r="D28" s="115" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E28" s="115"/>
     </row>
@@ -10485,7 +10486,7 @@
         <v>1008</v>
       </c>
       <c r="D29" s="115" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E29" s="115"/>
     </row>
@@ -10509,7 +10510,7 @@
         <v>1009</v>
       </c>
       <c r="D31" s="115" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E31" s="115"/>
     </row>
@@ -10533,7 +10534,7 @@
         <v>1010</v>
       </c>
       <c r="D33" s="115" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E33" s="115"/>
     </row>
@@ -10593,7 +10594,7 @@
         <v>1011</v>
       </c>
       <c r="D38" s="115" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E38" s="115"/>
     </row>
@@ -10689,7 +10690,7 @@
         <v>1012</v>
       </c>
       <c r="D46" s="115" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E46" s="115"/>
     </row>
@@ -10713,7 +10714,7 @@
         <v>1013</v>
       </c>
       <c r="D48" s="115" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E48" s="115"/>
     </row>
@@ -10749,7 +10750,7 @@
         <v>1014</v>
       </c>
       <c r="D51" s="115" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E51" s="115"/>
     </row>
@@ -10761,7 +10762,7 @@
         <v>1015</v>
       </c>
       <c r="D52" s="115" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E52" s="115"/>
     </row>
@@ -10785,7 +10786,7 @@
         <v>1016</v>
       </c>
       <c r="D54" s="115" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E54" s="115"/>
     </row>
@@ -10833,7 +10834,7 @@
         <v>1017</v>
       </c>
       <c r="D58" s="115" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E58" s="115"/>
     </row>
@@ -10869,7 +10870,7 @@
         <v>1018</v>
       </c>
       <c r="D61" s="115" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E61" s="115"/>
     </row>
@@ -10929,7 +10930,7 @@
         <v>1019</v>
       </c>
       <c r="D66" s="115" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E66" s="115"/>
     </row>
@@ -10941,7 +10942,7 @@
         <v>1020</v>
       </c>
       <c r="D67" s="115" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E67" s="115"/>
     </row>
@@ -11037,7 +11038,7 @@
         <v>1021</v>
       </c>
       <c r="D75" s="115" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E75" s="115"/>
     </row>
@@ -11085,7 +11086,7 @@
         <v>1022</v>
       </c>
       <c r="D79" s="115" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E79" s="115"/>
     </row>
@@ -11121,7 +11122,7 @@
         <v>1023</v>
       </c>
       <c r="D82" s="115" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E82" s="115"/>
     </row>
@@ -11133,7 +11134,7 @@
         <v>1024</v>
       </c>
       <c r="D83" s="115" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E83" s="115"/>
     </row>
@@ -11145,7 +11146,7 @@
         <v>1025</v>
       </c>
       <c r="D84" s="115" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E84" s="115"/>
     </row>
@@ -11157,7 +11158,7 @@
         <v>1025</v>
       </c>
       <c r="D85" s="115" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E85" s="115"/>
     </row>
@@ -11169,7 +11170,7 @@
         <v>1025</v>
       </c>
       <c r="D86" s="115" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E86" s="115"/>
     </row>
@@ -11181,7 +11182,7 @@
         <v>1025</v>
       </c>
       <c r="D87" s="115" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E87" s="115"/>
     </row>
@@ -11193,7 +11194,7 @@
         <v>1026</v>
       </c>
       <c r="D88" s="115" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E88" s="115"/>
     </row>
@@ -11205,7 +11206,7 @@
         <v>1027</v>
       </c>
       <c r="D89" s="115" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E89" s="115"/>
     </row>
@@ -11217,7 +11218,7 @@
         <v>1028</v>
       </c>
       <c r="D90" s="115" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E90" s="115"/>
     </row>
@@ -11229,7 +11230,7 @@
         <v>1029</v>
       </c>
       <c r="D91" s="115" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E91" s="115"/>
     </row>
@@ -11241,7 +11242,7 @@
         <v>1030</v>
       </c>
       <c r="D92" s="115" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E92" s="115"/>
     </row>
@@ -11253,7 +11254,7 @@
         <v>1031</v>
       </c>
       <c r="D93" s="115" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E93" s="115"/>
     </row>
@@ -11265,7 +11266,7 @@
         <v>1032</v>
       </c>
       <c r="D94" s="115" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E94" s="115"/>
     </row>
@@ -11277,7 +11278,7 @@
         <v>1033</v>
       </c>
       <c r="D95" s="115" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E95" s="115"/>
     </row>
@@ -11289,7 +11290,7 @@
         <v>1034</v>
       </c>
       <c r="D96" s="115" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E96" s="115"/>
     </row>
@@ -11649,7 +11650,7 @@
         <v>1050</v>
       </c>
       <c r="D126" s="115" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E126" s="115"/>
     </row>
@@ -11661,7 +11662,7 @@
         <v>1051</v>
       </c>
       <c r="D127" s="115" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E127" s="115"/>
     </row>
@@ -11673,7 +11674,7 @@
         <v>1052</v>
       </c>
       <c r="D128" s="115" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E128" s="115"/>
     </row>
@@ -11685,7 +11686,7 @@
         <v>1053</v>
       </c>
       <c r="D129" s="115" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E129" s="115"/>
     </row>
@@ -11697,7 +11698,7 @@
         <v>1054</v>
       </c>
       <c r="D130" s="115" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E130" s="115"/>
     </row>
@@ -11709,7 +11710,7 @@
         <v>1055</v>
       </c>
       <c r="D131" s="115" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E131" s="115"/>
     </row>
@@ -11721,7 +11722,7 @@
         <v>1056</v>
       </c>
       <c r="D132" s="115" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E132" s="115"/>
     </row>
@@ -11733,7 +11734,7 @@
         <v>1057</v>
       </c>
       <c r="D133" s="115" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E133" s="115"/>
     </row>
@@ -11745,7 +11746,7 @@
         <v>1058</v>
       </c>
       <c r="D134" s="115" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E134" s="115"/>
     </row>
@@ -11757,7 +11758,7 @@
         <v>1059</v>
       </c>
       <c r="D135" s="115" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E135" s="115"/>
     </row>
@@ -11769,7 +11770,7 @@
         <v>1060</v>
       </c>
       <c r="D136" s="115" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E136" s="115"/>
     </row>
@@ -11781,7 +11782,7 @@
         <v>1061</v>
       </c>
       <c r="D137" s="115" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E137" s="115"/>
     </row>
@@ -11793,7 +11794,7 @@
         <v>1062</v>
       </c>
       <c r="D138" s="115" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E138" s="115"/>
     </row>
@@ -11805,7 +11806,7 @@
         <v>1063</v>
       </c>
       <c r="D139" s="115" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E139" s="115"/>
     </row>
@@ -11817,7 +11818,7 @@
         <v>1064</v>
       </c>
       <c r="D140" s="115" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E140" s="115"/>
     </row>
@@ -11829,7 +11830,7 @@
         <v>1065</v>
       </c>
       <c r="D141" s="115" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E141" s="115"/>
     </row>
@@ -11841,7 +11842,7 @@
         <v>1066</v>
       </c>
       <c r="D142" s="115" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E142" s="115"/>
     </row>
@@ -11853,7 +11854,7 @@
         <v>1067</v>
       </c>
       <c r="D143" s="115" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E143" s="115"/>
     </row>
@@ -11865,7 +11866,7 @@
         <v>1068</v>
       </c>
       <c r="D144" s="115" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E144" s="115"/>
     </row>
@@ -11877,7 +11878,7 @@
         <v>1069</v>
       </c>
       <c r="D145" s="115" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E145" s="115"/>
     </row>
@@ -11886,10 +11887,10 @@
         <v>749</v>
       </c>
       <c r="C146" s="127" t="s">
-        <v>1070</v>
+        <v>1660</v>
       </c>
       <c r="D146" s="115" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E146" s="115"/>
     </row>
@@ -11898,10 +11899,10 @@
         <v>748</v>
       </c>
       <c r="C147" s="127" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D147" s="115" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E147" s="115"/>
     </row>
@@ -11910,10 +11911,10 @@
         <v>747</v>
       </c>
       <c r="C148" s="127" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D148" s="115" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E148" s="115"/>
     </row>
@@ -11922,10 +11923,10 @@
         <v>746</v>
       </c>
       <c r="C149" s="127" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D149" s="115" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E149" s="115"/>
     </row>
@@ -11934,10 +11935,10 @@
         <v>745</v>
       </c>
       <c r="C150" s="127" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D150" s="115" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E150" s="115"/>
     </row>
@@ -11946,10 +11947,10 @@
         <v>744</v>
       </c>
       <c r="C151" s="127" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D151" s="115" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E151" s="115"/>
     </row>
@@ -11958,10 +11959,10 @@
         <v>743</v>
       </c>
       <c r="C152" s="127" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D152" s="115" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E152" s="115"/>
     </row>
@@ -11970,10 +11971,10 @@
         <v>742</v>
       </c>
       <c r="C153" s="127" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D153" s="115" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E153" s="115"/>
     </row>
@@ -11982,10 +11983,10 @@
         <v>741</v>
       </c>
       <c r="C154" s="127" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D154" s="115" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E154" s="115"/>
     </row>
@@ -11994,10 +11995,10 @@
         <v>740</v>
       </c>
       <c r="C155" s="127" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D155" s="115" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E155" s="115"/>
     </row>
@@ -12006,10 +12007,10 @@
         <v>739</v>
       </c>
       <c r="C156" s="127" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D156" s="115" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E156" s="115"/>
     </row>
@@ -12018,10 +12019,10 @@
         <v>738</v>
       </c>
       <c r="C157" s="127" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D157" s="115" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E157" s="115"/>
     </row>
@@ -12030,10 +12031,10 @@
         <v>737</v>
       </c>
       <c r="C158" s="127" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D158" s="115" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E158" s="115"/>
     </row>
@@ -12042,10 +12043,10 @@
         <v>736</v>
       </c>
       <c r="C159" s="127" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D159" s="115" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E159" s="115"/>
     </row>
@@ -12054,10 +12055,10 @@
         <v>735</v>
       </c>
       <c r="C160" s="127" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D160" s="115" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E160" s="115"/>
     </row>
@@ -12066,10 +12067,10 @@
         <v>734</v>
       </c>
       <c r="C161" s="127" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D161" s="115" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E161" s="115"/>
     </row>
@@ -12078,10 +12079,10 @@
         <v>733</v>
       </c>
       <c r="C162" s="127" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D162" s="115" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E162" s="115"/>
     </row>
@@ -12090,10 +12091,10 @@
         <v>732</v>
       </c>
       <c r="C163" s="127" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D163" s="115" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E163" s="115"/>
     </row>
@@ -12102,10 +12103,10 @@
         <v>731</v>
       </c>
       <c r="C164" s="127" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D164" s="115" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E164" s="115"/>
     </row>
@@ -12114,10 +12115,10 @@
         <v>730</v>
       </c>
       <c r="C165" s="127" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D165" s="115" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E165" s="115"/>
     </row>
@@ -12126,10 +12127,10 @@
         <v>729</v>
       </c>
       <c r="C166" s="127" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D166" s="115" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E166" s="115"/>
     </row>
@@ -12138,10 +12139,10 @@
         <v>728</v>
       </c>
       <c r="C167" s="127" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D167" s="115" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E167" s="115"/>
     </row>
@@ -12150,10 +12151,10 @@
         <v>727</v>
       </c>
       <c r="C168" s="127" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D168" s="115" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E168" s="115"/>
     </row>
@@ -12162,10 +12163,10 @@
         <v>726</v>
       </c>
       <c r="C169" s="127" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D169" s="115" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E169" s="115"/>
     </row>
@@ -12174,10 +12175,10 @@
         <v>725</v>
       </c>
       <c r="C170" s="127" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D170" s="115" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E170" s="115"/>
     </row>
@@ -12186,10 +12187,10 @@
         <v>724</v>
       </c>
       <c r="C171" s="127" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D171" s="115" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E171" s="115"/>
     </row>
@@ -12198,10 +12199,10 @@
         <v>723</v>
       </c>
       <c r="C172" s="127" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D172" s="115" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E172" s="115"/>
     </row>
@@ -12210,10 +12211,10 @@
         <v>722</v>
       </c>
       <c r="C173" s="127" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D173" s="115" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E173" s="115"/>
     </row>
@@ -12222,10 +12223,10 @@
         <v>721</v>
       </c>
       <c r="C174" s="127" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D174" s="115" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E174" s="115"/>
     </row>
@@ -12234,10 +12235,10 @@
         <v>720</v>
       </c>
       <c r="C175" s="127" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D175" s="115" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E175" s="115"/>
     </row>
@@ -12246,10 +12247,10 @@
         <v>719</v>
       </c>
       <c r="C176" s="127" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D176" s="115" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E176" s="115"/>
     </row>
@@ -12258,10 +12259,10 @@
         <v>718</v>
       </c>
       <c r="C177" s="127" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D177" s="115" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E177" s="115"/>
     </row>
@@ -12270,10 +12271,10 @@
         <v>717</v>
       </c>
       <c r="C178" s="127" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D178" s="115" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E178" s="115"/>
     </row>
@@ -12282,10 +12283,10 @@
         <v>716</v>
       </c>
       <c r="C179" s="127" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D179" s="115" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E179" s="115"/>
     </row>
@@ -12294,10 +12295,10 @@
         <v>715</v>
       </c>
       <c r="C180" s="127" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D180" s="115" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E180" s="115"/>
     </row>
@@ -12306,10 +12307,10 @@
         <v>714</v>
       </c>
       <c r="C181" s="127" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D181" s="115" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E181" s="115"/>
     </row>
@@ -12318,10 +12319,10 @@
         <v>713</v>
       </c>
       <c r="C182" s="127" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D182" s="115" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E182" s="115"/>
     </row>
@@ -12330,10 +12331,10 @@
         <v>712</v>
       </c>
       <c r="C183" s="127" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D183" s="115" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E183" s="115"/>
     </row>
@@ -12342,10 +12343,10 @@
         <v>711</v>
       </c>
       <c r="C184" s="127" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D184" s="115" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E184" s="115"/>
     </row>
@@ -12354,10 +12355,10 @@
         <v>710</v>
       </c>
       <c r="C185" s="127" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D185" s="115" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E185" s="115"/>
     </row>
@@ -12366,10 +12367,10 @@
         <v>709</v>
       </c>
       <c r="C186" s="127" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D186" s="115" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E186" s="115"/>
     </row>
@@ -12378,10 +12379,10 @@
         <v>708</v>
       </c>
       <c r="C187" s="127" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D187" s="115" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E187" s="115"/>
     </row>
@@ -12390,10 +12391,10 @@
         <v>707</v>
       </c>
       <c r="C188" s="127" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D188" s="115" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E188" s="115"/>
     </row>
@@ -12402,10 +12403,10 @@
         <v>706</v>
       </c>
       <c r="C189" s="127" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D189" s="115" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E189" s="115"/>
     </row>
@@ -12414,10 +12415,10 @@
         <v>705</v>
       </c>
       <c r="C190" s="127" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D190" s="115" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E190" s="115"/>
     </row>
@@ -12426,10 +12427,10 @@
         <v>704</v>
       </c>
       <c r="C191" s="127" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D191" s="115" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E191" s="115"/>
     </row>
@@ -12438,10 +12439,10 @@
         <v>703</v>
       </c>
       <c r="C192" s="127" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D192" s="115" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E192" s="115"/>
     </row>
@@ -12450,10 +12451,10 @@
         <v>702</v>
       </c>
       <c r="C193" s="127" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D193" s="115" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E193" s="115"/>
     </row>
@@ -12462,10 +12463,10 @@
         <v>701</v>
       </c>
       <c r="C194" s="127" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D194" s="115" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E194" s="115"/>
     </row>
@@ -12474,10 +12475,10 @@
         <v>700</v>
       </c>
       <c r="C195" s="127" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D195" s="115" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E195" s="115"/>
     </row>
@@ -12486,10 +12487,10 @@
         <v>699</v>
       </c>
       <c r="C196" s="127" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D196" s="115" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E196" s="115"/>
     </row>
@@ -12498,10 +12499,10 @@
         <v>698</v>
       </c>
       <c r="C197" s="127" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D197" s="115" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E197" s="115"/>
     </row>
@@ -12510,10 +12511,10 @@
         <v>697</v>
       </c>
       <c r="C198" s="127" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D198" s="115" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E198" s="115"/>
     </row>
@@ -12522,10 +12523,10 @@
         <v>696</v>
       </c>
       <c r="C199" s="127" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D199" s="115" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E199" s="115"/>
     </row>
@@ -12534,10 +12535,10 @@
         <v>695</v>
       </c>
       <c r="C200" s="127" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D200" s="115" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E200" s="115"/>
     </row>
@@ -12546,10 +12547,10 @@
         <v>694</v>
       </c>
       <c r="C201" s="127" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D201" s="115" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E201" s="115"/>
     </row>
@@ -12558,10 +12559,10 @@
         <v>693</v>
       </c>
       <c r="C202" s="127" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D202" s="115" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E202" s="115"/>
     </row>
@@ -12570,10 +12571,10 @@
         <v>692</v>
       </c>
       <c r="C203" s="127" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D203" s="115" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E203" s="115"/>
     </row>
@@ -12582,10 +12583,10 @@
         <v>691</v>
       </c>
       <c r="C204" s="127" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D204" s="115" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E204" s="115"/>
     </row>
@@ -12594,10 +12595,10 @@
         <v>690</v>
       </c>
       <c r="C205" s="127" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D205" s="115" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E205" s="115"/>
     </row>
@@ -12606,10 +12607,10 @@
         <v>689</v>
       </c>
       <c r="C206" s="127" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D206" s="115" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E206" s="115"/>
     </row>
@@ -12618,10 +12619,10 @@
         <v>688</v>
       </c>
       <c r="C207" s="127" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D207" s="115" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E207" s="115"/>
     </row>
@@ -12630,10 +12631,10 @@
         <v>687</v>
       </c>
       <c r="C208" s="127" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D208" s="115" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E208" s="115"/>
     </row>
@@ -12642,10 +12643,10 @@
         <v>686</v>
       </c>
       <c r="C209" s="127" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D209" s="115" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E209" s="115"/>
     </row>
@@ -12654,10 +12655,10 @@
         <v>685</v>
       </c>
       <c r="C210" s="127" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D210" s="115" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E210" s="115"/>
     </row>
@@ -12666,10 +12667,10 @@
         <v>684</v>
       </c>
       <c r="C211" s="127" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D211" s="115" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E211" s="115"/>
     </row>
@@ -12678,10 +12679,10 @@
         <v>683</v>
       </c>
       <c r="C212" s="127" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D212" s="115" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E212" s="115"/>
     </row>
@@ -12690,10 +12691,10 @@
         <v>682</v>
       </c>
       <c r="C213" s="127" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D213" s="115" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E213" s="115"/>
     </row>
@@ -12702,10 +12703,10 @@
         <v>681</v>
       </c>
       <c r="C214" s="127" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D214" s="115" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E214" s="115"/>
     </row>
@@ -12714,10 +12715,10 @@
         <v>680</v>
       </c>
       <c r="C215" s="127" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D215" s="115" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E215" s="115"/>
     </row>
@@ -12726,10 +12727,10 @@
         <v>679</v>
       </c>
       <c r="C216" s="127" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D216" s="115" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E216" s="115"/>
     </row>
@@ -12738,10 +12739,10 @@
         <v>678</v>
       </c>
       <c r="C217" s="127" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D217" s="115" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E217" s="115"/>
     </row>
@@ -12750,10 +12751,10 @@
         <v>677</v>
       </c>
       <c r="C218" s="127" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D218" s="115" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E218" s="115"/>
     </row>
@@ -12762,10 +12763,10 @@
         <v>676</v>
       </c>
       <c r="C219" s="127" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D219" s="115" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E219" s="115"/>
     </row>
@@ -12774,10 +12775,10 @@
         <v>675</v>
       </c>
       <c r="C220" s="127" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D220" s="115" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E220" s="115"/>
     </row>
@@ -12786,10 +12787,10 @@
         <v>674</v>
       </c>
       <c r="C221" s="127" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D221" s="115" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E221" s="115"/>
     </row>
@@ -12798,10 +12799,10 @@
         <v>673</v>
       </c>
       <c r="C222" s="127" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D222" s="115" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E222" s="115"/>
     </row>
@@ -12810,10 +12811,10 @@
         <v>672</v>
       </c>
       <c r="C223" s="127" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D223" s="115" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E223" s="115"/>
     </row>
@@ -12822,10 +12823,10 @@
         <v>671</v>
       </c>
       <c r="C224" s="127" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D224" s="115" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E224" s="115"/>
     </row>
@@ -12834,10 +12835,10 @@
         <v>670</v>
       </c>
       <c r="C225" s="127" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D225" s="115" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E225" s="115"/>
     </row>
@@ -12846,10 +12847,10 @@
         <v>669</v>
       </c>
       <c r="C226" s="127" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D226" s="115" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E226" s="115"/>
     </row>
@@ -12858,10 +12859,10 @@
         <v>668</v>
       </c>
       <c r="C227" s="127" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D227" s="115" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E227" s="115"/>
     </row>
@@ -12870,10 +12871,10 @@
         <v>667</v>
       </c>
       <c r="C228" s="127" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D228" s="115" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E228" s="115"/>
     </row>
@@ -12882,10 +12883,10 @@
         <v>666</v>
       </c>
       <c r="C229" s="127" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D229" s="115" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E229" s="115"/>
     </row>
@@ -12894,10 +12895,10 @@
         <v>665</v>
       </c>
       <c r="C230" s="127" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D230" s="115" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E230" s="115"/>
     </row>
@@ -12906,10 +12907,10 @@
         <v>664</v>
       </c>
       <c r="C231" s="127" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D231" s="115" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E231" s="115"/>
     </row>
@@ -12918,10 +12919,10 @@
         <v>663</v>
       </c>
       <c r="C232" s="127" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D232" s="115" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E232" s="115"/>
     </row>
@@ -12930,10 +12931,10 @@
         <v>662</v>
       </c>
       <c r="C233" s="127" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D233" s="115" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E233" s="115"/>
     </row>
@@ -12942,10 +12943,10 @@
         <v>661</v>
       </c>
       <c r="C234" s="127" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D234" s="115" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E234" s="115"/>
     </row>
@@ -12954,10 +12955,10 @@
         <v>660</v>
       </c>
       <c r="C235" s="127" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D235" s="115" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E235" s="115"/>
     </row>
@@ -12966,10 +12967,10 @@
         <v>659</v>
       </c>
       <c r="C236" s="127" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D236" s="115" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E236" s="115"/>
     </row>
@@ -12978,10 +12979,10 @@
         <v>658</v>
       </c>
       <c r="C237" s="127" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D237" s="115" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E237" s="115"/>
     </row>
@@ -12990,10 +12991,10 @@
         <v>657</v>
       </c>
       <c r="C238" s="127" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D238" s="115" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E238" s="115"/>
     </row>
@@ -13002,10 +13003,10 @@
         <v>656</v>
       </c>
       <c r="C239" s="127" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D239" s="115" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E239" s="115"/>
     </row>
@@ -13014,10 +13015,10 @@
         <v>655</v>
       </c>
       <c r="C240" s="127" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D240" s="115" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E240" s="115"/>
     </row>
@@ -13026,10 +13027,10 @@
         <v>654</v>
       </c>
       <c r="C241" s="127" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D241" s="115" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E241" s="115"/>
     </row>
@@ -13038,10 +13039,10 @@
         <v>653</v>
       </c>
       <c r="C242" s="127" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D242" s="115" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E242" s="115"/>
     </row>
@@ -13050,10 +13051,10 @@
         <v>652</v>
       </c>
       <c r="C243" s="127" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D243" s="115" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E243" s="115"/>
     </row>
@@ -13062,10 +13063,10 @@
         <v>651</v>
       </c>
       <c r="C244" s="127" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D244" s="115" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E244" s="115"/>
     </row>
@@ -13074,10 +13075,10 @@
         <v>650</v>
       </c>
       <c r="C245" s="127" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D245" s="115" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E245" s="115"/>
     </row>
@@ -13086,10 +13087,10 @@
         <v>649</v>
       </c>
       <c r="C246" s="127" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D246" s="115" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E246" s="115"/>
     </row>
@@ -13098,10 +13099,10 @@
         <v>648</v>
       </c>
       <c r="C247" s="127" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D247" s="115" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E247" s="115"/>
     </row>
@@ -13110,10 +13111,10 @@
         <v>647</v>
       </c>
       <c r="C248" s="127" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D248" s="115" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E248" s="115"/>
     </row>
@@ -13122,10 +13123,10 @@
         <v>646</v>
       </c>
       <c r="C249" s="127" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D249" s="115" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E249" s="115"/>
     </row>
@@ -13134,10 +13135,10 @@
         <v>645</v>
       </c>
       <c r="C250" s="127" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D250" s="115" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E250" s="115"/>
     </row>
@@ -13146,10 +13147,10 @@
         <v>644</v>
       </c>
       <c r="C251" s="127" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D251" s="115" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E251" s="115"/>
     </row>
@@ -13158,10 +13159,10 @@
         <v>643</v>
       </c>
       <c r="C252" s="132" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D252" s="115" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E252" s="115"/>
     </row>
@@ -13170,10 +13171,10 @@
         <v>642</v>
       </c>
       <c r="C253" s="129" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D253" s="131" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E253" s="115"/>
     </row>
@@ -13182,10 +13183,10 @@
         <v>641</v>
       </c>
       <c r="C254" s="127" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D254" s="115" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E254" s="115"/>
     </row>
@@ -13194,10 +13195,10 @@
         <v>640</v>
       </c>
       <c r="C255" s="127" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D255" s="115" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E255" s="115"/>
     </row>
@@ -13206,10 +13207,10 @@
         <v>639</v>
       </c>
       <c r="C256" s="127" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D256" s="115" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E256" s="115"/>
     </row>
@@ -13218,10 +13219,10 @@
         <v>638</v>
       </c>
       <c r="C257" s="127" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D257" s="115" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E257" s="115"/>
     </row>
@@ -13230,10 +13231,10 @@
         <v>637</v>
       </c>
       <c r="C258" s="127" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D258" s="115" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E258" s="115"/>
     </row>
@@ -13242,10 +13243,10 @@
         <v>636</v>
       </c>
       <c r="C259" s="127" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D259" s="115" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E259" s="115"/>
     </row>
@@ -13254,10 +13255,10 @@
         <v>635</v>
       </c>
       <c r="C260" s="127" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D260" s="115" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E260" s="115"/>
     </row>
@@ -13266,10 +13267,10 @@
         <v>634</v>
       </c>
       <c r="C261" s="127" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D261" s="115" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E261" s="115"/>
     </row>
@@ -13278,10 +13279,10 @@
         <v>633</v>
       </c>
       <c r="C262" s="127" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D262" s="115" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E262" s="115"/>
     </row>
@@ -13290,10 +13291,10 @@
         <v>632</v>
       </c>
       <c r="C263" s="127" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D263" s="115" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E263" s="115"/>
     </row>
@@ -13302,10 +13303,10 @@
         <v>631</v>
       </c>
       <c r="C264" s="127" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D264" s="115" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E264" s="115"/>
     </row>
@@ -13314,10 +13315,10 @@
         <v>630</v>
       </c>
       <c r="C265" s="127" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D265" s="115" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E265" s="115"/>
     </row>
@@ -13326,10 +13327,10 @@
         <v>629</v>
       </c>
       <c r="C266" s="127" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D266" s="115" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E266" s="115"/>
     </row>
@@ -13338,10 +13339,10 @@
         <v>628</v>
       </c>
       <c r="C267" s="127" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D267" s="115" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E267" s="115"/>
     </row>
@@ -13350,10 +13351,10 @@
         <v>627</v>
       </c>
       <c r="C268" s="127" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D268" s="115" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E268" s="115"/>
     </row>
@@ -13362,10 +13363,10 @@
         <v>626</v>
       </c>
       <c r="C269" s="127" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D269" s="115" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E269" s="115"/>
     </row>
@@ -13374,10 +13375,10 @@
         <v>625</v>
       </c>
       <c r="C270" s="127" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D270" s="115" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E270" s="115"/>
     </row>
@@ -13386,10 +13387,10 @@
         <v>624</v>
       </c>
       <c r="C271" s="127" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D271" s="115" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E271" s="115"/>
     </row>
@@ -13398,10 +13399,10 @@
         <v>623</v>
       </c>
       <c r="C272" s="127" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D272" s="115" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E272" s="115"/>
     </row>
@@ -13410,10 +13411,10 @@
         <v>622</v>
       </c>
       <c r="C273" s="127" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D273" s="115" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E273" s="115"/>
     </row>
@@ -13422,10 +13423,10 @@
         <v>621</v>
       </c>
       <c r="C274" s="127" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D274" s="115" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E274" s="115"/>
     </row>
@@ -13434,10 +13435,10 @@
         <v>620</v>
       </c>
       <c r="C275" s="127" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D275" s="115" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E275" s="115"/>
     </row>
@@ -13446,10 +13447,10 @@
         <v>619</v>
       </c>
       <c r="C276" s="127" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D276" s="115" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E276" s="115"/>
     </row>
@@ -13458,10 +13459,10 @@
         <v>618</v>
       </c>
       <c r="C277" s="127" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D277" s="115" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E277" s="115"/>
     </row>
@@ -13470,10 +13471,10 @@
         <v>617</v>
       </c>
       <c r="C278" s="127" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D278" s="115" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E278" s="115"/>
     </row>
@@ -13482,10 +13483,10 @@
         <v>616</v>
       </c>
       <c r="C279" s="127" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D279" s="115" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E279" s="115"/>
     </row>
@@ -13494,10 +13495,10 @@
         <v>615</v>
       </c>
       <c r="C280" s="127" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D280" s="115" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E280" s="115"/>
     </row>
@@ -13506,10 +13507,10 @@
         <v>614</v>
       </c>
       <c r="C281" s="127" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D281" s="115" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E281" s="115"/>
     </row>
@@ -13518,10 +13519,10 @@
         <v>613</v>
       </c>
       <c r="C282" s="127" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D282" s="115" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E282" s="115"/>
     </row>
@@ -13530,10 +13531,10 @@
         <v>612</v>
       </c>
       <c r="C283" s="127" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D283" s="115" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E283" s="115"/>
     </row>
@@ -13542,10 +13543,10 @@
         <v>611</v>
       </c>
       <c r="C284" s="127" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D284" s="115" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E284" s="115"/>
     </row>
@@ -13554,10 +13555,10 @@
         <v>610</v>
       </c>
       <c r="C285" s="127" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D285" s="115" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E285" s="115"/>
     </row>
@@ -13566,10 +13567,10 @@
         <v>609</v>
       </c>
       <c r="C286" s="127" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D286" s="115" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E286" s="115"/>
     </row>
@@ -13578,10 +13579,10 @@
         <v>608</v>
       </c>
       <c r="C287" s="127" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D287" s="115" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E287" s="115"/>
     </row>
@@ -13590,10 +13591,10 @@
         <v>607</v>
       </c>
       <c r="C288" s="127" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D288" s="115" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E288" s="115"/>
     </row>
@@ -13602,10 +13603,10 @@
         <v>606</v>
       </c>
       <c r="C289" s="127" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D289" s="115" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E289" s="115"/>
     </row>
@@ -13614,10 +13615,10 @@
         <v>605</v>
       </c>
       <c r="C290" s="127" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D290" s="115" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E290" s="115"/>
     </row>
@@ -13626,10 +13627,10 @@
         <v>604</v>
       </c>
       <c r="C291" s="127" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D291" s="115" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E291" s="115"/>
     </row>
@@ -13638,10 +13639,10 @@
         <v>603</v>
       </c>
       <c r="C292" s="127" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D292" s="115" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E292" s="115"/>
     </row>
@@ -13650,10 +13651,10 @@
         <v>602</v>
       </c>
       <c r="C293" s="127" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D293" s="115" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E293" s="115"/>
     </row>
@@ -13662,10 +13663,10 @@
         <v>601</v>
       </c>
       <c r="C294" s="127" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D294" s="115" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E294" s="115"/>
     </row>
@@ -13674,10 +13675,10 @@
         <v>600</v>
       </c>
       <c r="C295" s="128" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D295" s="117" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E295" s="115"/>
     </row>
@@ -13686,10 +13687,10 @@
         <v>599</v>
       </c>
       <c r="C296" s="127" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D296" s="115" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E296" s="115"/>
     </row>
@@ -13698,10 +13699,10 @@
         <v>598</v>
       </c>
       <c r="C297" s="127" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D297" s="115" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E297" s="115"/>
     </row>
@@ -13710,10 +13711,10 @@
         <v>597</v>
       </c>
       <c r="C298" s="127" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D298" s="115" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E298" s="115"/>
     </row>
@@ -13722,10 +13723,10 @@
         <v>596</v>
       </c>
       <c r="C299" s="127" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D299" s="115" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E299" s="115"/>
     </row>
@@ -13734,10 +13735,10 @@
         <v>595</v>
       </c>
       <c r="C300" s="127" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D300" s="115" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E300" s="115"/>
     </row>
@@ -13746,10 +13747,10 @@
         <v>594</v>
       </c>
       <c r="C301" s="127" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D301" s="115" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E301" s="115"/>
     </row>
@@ -13758,10 +13759,10 @@
         <v>593</v>
       </c>
       <c r="C302" s="127" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D302" s="115" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E302" s="115"/>
     </row>
@@ -13770,10 +13771,10 @@
         <v>592</v>
       </c>
       <c r="C303" s="127" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D303" s="115" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E303" s="115"/>
     </row>
@@ -13782,10 +13783,10 @@
         <v>591</v>
       </c>
       <c r="C304" s="127" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D304" s="115" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E304" s="115"/>
     </row>
@@ -13794,10 +13795,10 @@
         <v>590</v>
       </c>
       <c r="C305" s="127" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D305" s="115" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E305" s="115"/>
     </row>
@@ -13806,10 +13807,10 @@
         <v>589</v>
       </c>
       <c r="C306" s="127" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D306" s="115" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E306" s="115"/>
     </row>
@@ -13818,10 +13819,10 @@
         <v>588</v>
       </c>
       <c r="C307" s="127" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D307" s="115" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E307" s="115"/>
     </row>
@@ -13830,10 +13831,10 @@
         <v>587</v>
       </c>
       <c r="C308" s="127" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D308" s="115" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E308" s="115"/>
     </row>
@@ -13842,10 +13843,10 @@
         <v>586</v>
       </c>
       <c r="C309" s="127" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D309" s="115" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E309" s="115"/>
     </row>
@@ -13854,10 +13855,10 @@
         <v>585</v>
       </c>
       <c r="C310" s="127" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D310" s="115" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E310" s="115"/>
     </row>
@@ -13866,10 +13867,10 @@
         <v>584</v>
       </c>
       <c r="C311" s="127" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D311" s="115" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E311" s="115"/>
     </row>
@@ -13878,10 +13879,10 @@
         <v>583</v>
       </c>
       <c r="C312" s="127" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D312" s="115" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E312" s="115"/>
     </row>
@@ -13890,10 +13891,10 @@
         <v>582</v>
       </c>
       <c r="C313" s="127" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D313" s="115" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E313" s="115"/>
     </row>
@@ -13902,10 +13903,10 @@
         <v>581</v>
       </c>
       <c r="C314" s="127" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D314" s="115" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E314" s="115"/>
     </row>
@@ -13914,10 +13915,10 @@
         <v>580</v>
       </c>
       <c r="C315" s="127" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D315" s="115" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E315" s="115"/>
     </row>
@@ -13926,10 +13927,10 @@
         <v>579</v>
       </c>
       <c r="C316" s="127" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D316" s="115" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E316" s="115"/>
     </row>
@@ -13938,10 +13939,10 @@
         <v>578</v>
       </c>
       <c r="C317" s="127" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D317" s="115" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E317" s="115"/>
     </row>
@@ -13950,10 +13951,10 @@
         <v>577</v>
       </c>
       <c r="C318" s="127" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D318" s="115" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E318" s="115"/>
     </row>
@@ -13962,10 +13963,10 @@
         <v>576</v>
       </c>
       <c r="C319" s="127" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D319" s="115" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E319" s="115"/>
     </row>
@@ -13974,10 +13975,10 @@
         <v>575</v>
       </c>
       <c r="C320" s="127" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D320" s="115" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E320" s="115"/>
     </row>
@@ -13986,10 +13987,10 @@
         <v>574</v>
       </c>
       <c r="C321" s="127" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D321" s="115" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E321" s="115"/>
     </row>
@@ -13998,10 +13999,10 @@
         <v>573</v>
       </c>
       <c r="C322" s="127" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D322" s="115" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E322" s="115"/>
     </row>
@@ -14010,10 +14011,10 @@
         <v>572</v>
       </c>
       <c r="C323" s="127" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D323" s="115" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E323" s="115"/>
     </row>
@@ -14022,10 +14023,10 @@
         <v>571</v>
       </c>
       <c r="C324" s="127" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D324" s="115" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E324" s="115"/>
     </row>
@@ -14034,10 +14035,10 @@
         <v>570</v>
       </c>
       <c r="C325" s="127" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D325" s="115" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E325" s="115"/>
     </row>
@@ -14046,10 +14047,10 @@
         <v>569</v>
       </c>
       <c r="C326" s="127" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D326" s="115" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E326" s="115"/>
     </row>
@@ -14058,10 +14059,10 @@
         <v>568</v>
       </c>
       <c r="C327" s="127" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D327" s="115" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E327" s="115"/>
     </row>
@@ -14070,10 +14071,10 @@
         <v>567</v>
       </c>
       <c r="C328" s="127" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D328" s="115" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E328" s="115"/>
     </row>
@@ -14082,10 +14083,10 @@
         <v>566</v>
       </c>
       <c r="C329" s="127" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D329" s="115" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E329" s="115"/>
     </row>
@@ -14094,10 +14095,10 @@
         <v>565</v>
       </c>
       <c r="C330" s="127" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D330" s="115" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E330" s="115"/>
     </row>
@@ -14106,10 +14107,10 @@
         <v>564</v>
       </c>
       <c r="C331" s="127" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D331" s="115" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E331" s="115"/>
     </row>
@@ -14118,10 +14119,10 @@
         <v>563</v>
       </c>
       <c r="C332" s="127" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D332" s="115" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E332" s="115"/>
     </row>
@@ -14130,10 +14131,10 @@
         <v>562</v>
       </c>
       <c r="C333" s="127" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D333" s="115" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E333" s="115"/>
     </row>
@@ -14142,10 +14143,10 @@
         <v>561</v>
       </c>
       <c r="C334" s="127" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D334" s="115" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E334" s="115"/>
     </row>
@@ -14154,10 +14155,10 @@
         <v>560</v>
       </c>
       <c r="C335" s="127" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D335" s="115" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E335" s="115"/>
     </row>
@@ -14166,10 +14167,10 @@
         <v>559</v>
       </c>
       <c r="C336" s="127" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D336" s="115" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E336" s="115"/>
     </row>
@@ -14178,10 +14179,10 @@
         <v>558</v>
       </c>
       <c r="C337" s="127" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D337" s="115" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E337" s="115"/>
     </row>
@@ -14190,10 +14191,10 @@
         <v>557</v>
       </c>
       <c r="C338" s="127" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D338" s="115" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E338" s="115"/>
     </row>
@@ -14202,10 +14203,10 @@
         <v>556</v>
       </c>
       <c r="C339" s="127" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D339" s="115" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E339" s="115"/>
     </row>
@@ -14214,10 +14215,10 @@
         <v>555</v>
       </c>
       <c r="C340" s="127" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D340" s="115" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E340" s="115"/>
     </row>
@@ -14226,10 +14227,10 @@
         <v>554</v>
       </c>
       <c r="C341" s="127" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D341" s="115" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E341" s="115"/>
     </row>
@@ -14238,10 +14239,10 @@
         <v>553</v>
       </c>
       <c r="C342" s="127" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D342" s="115" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E342" s="115"/>
     </row>
@@ -14250,10 +14251,10 @@
         <v>552</v>
       </c>
       <c r="C343" s="127" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D343" s="115" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E343" s="115"/>
     </row>
@@ -14262,10 +14263,10 @@
         <v>551</v>
       </c>
       <c r="C344" s="127" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D344" s="115" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E344" s="115"/>
     </row>
@@ -14274,10 +14275,10 @@
         <v>550</v>
       </c>
       <c r="C345" s="127" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D345" s="115" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E345" s="115"/>
     </row>
@@ -14286,10 +14287,10 @@
         <v>549</v>
       </c>
       <c r="C346" s="127" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D346" s="115" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E346" s="115"/>
     </row>
@@ -14298,10 +14299,10 @@
         <v>548</v>
       </c>
       <c r="C347" s="127" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D347" s="115" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E347" s="115"/>
     </row>
@@ -14310,10 +14311,10 @@
         <v>547</v>
       </c>
       <c r="C348" s="127" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D348" s="115" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E348" s="115"/>
     </row>
@@ -14322,10 +14323,10 @@
         <v>546</v>
       </c>
       <c r="C349" s="127" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D349" s="115" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E349" s="115"/>
     </row>
@@ -14334,10 +14335,10 @@
         <v>545</v>
       </c>
       <c r="C350" s="127" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D350" s="115" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E350" s="115"/>
     </row>
@@ -14346,10 +14347,10 @@
         <v>544</v>
       </c>
       <c r="C351" s="127" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D351" s="115" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E351" s="115"/>
     </row>
@@ -14358,10 +14359,10 @@
         <v>543</v>
       </c>
       <c r="C352" s="127" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D352" s="115" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E352" s="115"/>
     </row>
@@ -14370,10 +14371,10 @@
         <v>542</v>
       </c>
       <c r="C353" s="127" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D353" s="115" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E353" s="115"/>
     </row>
@@ -14382,10 +14383,10 @@
         <v>541</v>
       </c>
       <c r="C354" s="127" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D354" s="115" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E354" s="115"/>
     </row>
@@ -14499,7 +14500,7 @@
         <v>45281</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="43.5">
@@ -14554,7 +14555,7 @@
         <v>45533</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -14565,40 +14566,40 @@
         <v>45596</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="29">
       <c r="B16" s="17" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C16" s="76">
         <v>45637</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="17" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C17" s="76">
         <v>45667</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="17" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C18" s="76">
         <v>45700</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -14705,77 +14706,77 @@
     </row>
     <row r="2" spans="1:8" ht="62.25" customHeight="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="175" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E2" s="176"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E2" s="164"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1">
       <c r="A3" s="38"/>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="163" t="s">
+      <c r="C3" s="172"/>
+      <c r="D3" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="164"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="A4" s="38"/>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="163" t="s">
+      <c r="C4" s="172"/>
+      <c r="D4" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="164"/>
+      <c r="E4" s="174"/>
     </row>
     <row r="5" spans="1:8" s="73" customFormat="1" ht="36" customHeight="1">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171" t="s">
+      <c r="C5" s="172"/>
+      <c r="D5" s="177" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="172"/>
+      <c r="E5" s="178"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1">
       <c r="A6" s="38"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="163" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="164"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="1:8" s="59" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="163" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="164"/>
+      <c r="E7" s="174"/>
     </row>
     <row r="8" spans="1:8" s="59" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="163" t="s">
+      <c r="C8" s="172"/>
+      <c r="D8" s="173" t="s">
         <v>444</v>
       </c>
-      <c r="E8" s="164"/>
+      <c r="E8" s="174"/>
     </row>
     <row r="9" spans="1:8" ht="35.5" customHeight="1" thickBot="1">
       <c r="A9" s="38"/>
@@ -14784,7 +14785,7 @@
       </c>
       <c r="C9" s="166"/>
       <c r="D9" s="167" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E9" s="168"/>
       <c r="H9" s="55"/>
@@ -14798,33 +14799,33 @@
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175" t="s">
+      <c r="C11" s="180"/>
+      <c r="D11" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="176"/>
+      <c r="E11" s="164"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="163" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="173" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E12" s="174"/>
     </row>
     <row r="13" spans="1:8" s="73" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B13" s="181" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
+      <c r="B13" s="169" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
     </row>
     <row r="14" spans="1:8" s="73" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B14" s="148"/>
@@ -14833,22 +14834,22 @@
       <c r="E14" s="149"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="161" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163" t="s">
         <v>1613</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="175" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E15" s="176"/>
+      <c r="E15" s="164"/>
     </row>
     <row r="16" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="B16" s="165" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C16" s="166"/>
       <c r="D16" s="167" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E16" s="168"/>
     </row>
@@ -14873,7 +14874,7 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="175" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="91" t="s">
@@ -14887,7 +14888,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="161"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="91" t="s">
         <v>392</v>
       </c>
@@ -14899,7 +14900,7 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="161"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="91" t="s">
         <v>393</v>
       </c>
@@ -14911,7 +14912,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="161"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="91" t="s">
         <v>400</v>
       </c>
@@ -14923,7 +14924,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="161"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="91" t="s">
         <v>119</v>
       </c>
@@ -14935,7 +14936,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="162"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="92" t="s">
         <v>443</v>
       </c>
@@ -14988,16 +14989,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D3:E3"/>
@@ -15014,6 +15005,16 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -15057,7 +15058,7 @@
       </c>
       <c r="C2" s="186"/>
       <c r="D2" s="187" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E2" s="188"/>
       <c r="F2" s="189"/>
@@ -15099,7 +15100,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="16">
@@ -15122,19 +15123,19 @@
     </row>
     <row r="8" spans="2:7" s="73" customFormat="1" ht="32">
       <c r="B8" s="64" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>1608</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>1609</v>
       </c>
       <c r="D8" s="64">
         <v>64</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16">
@@ -15216,7 +15217,7 @@
     </row>
     <row r="15" spans="2:7" s="30" customFormat="1" ht="68.150000000000006" customHeight="1">
       <c r="B15" s="183" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C15" s="184"/>
       <c r="D15" s="184"/>
@@ -15385,19 +15386,19 @@
     </row>
     <row r="27" spans="2:6" s="73" customFormat="1" ht="32">
       <c r="B27" s="64" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>1608</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>1609</v>
       </c>
       <c r="D27" s="64">
         <v>64</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="30" customFormat="1" ht="16">
@@ -15552,7 +15553,7 @@
     </row>
     <row r="38" spans="2:6" s="30" customFormat="1" ht="152.5" customHeight="1">
       <c r="B38" s="183" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C38" s="184"/>
       <c r="D38" s="184"/>
@@ -15585,8 +15586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -15959,7 +15960,7 @@
     </row>
     <row r="31" spans="2:6" ht="16">
       <c r="B31" s="185" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C31" s="185"/>
       <c r="D31" s="185"/>
@@ -15968,7 +15969,7 @@
     </row>
     <row r="32" spans="2:6" ht="112" customHeight="1">
       <c r="B32" s="183" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C32" s="184"/>
       <c r="D32" s="184"/>
@@ -16057,10 +16058,10 @@
         <v>498</v>
       </c>
       <c r="F6" s="109" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G6" s="109" t="s">
         <v>1585</v>
-      </c>
-      <c r="G6" s="109" t="s">
-        <v>1586</v>
       </c>
       <c r="H6" s="109" t="s">
         <v>499</v>
@@ -16142,7 +16143,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="138" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16">
@@ -16199,10 +16200,10 @@
     </row>
     <row r="12" spans="2:9" s="73" customFormat="1" ht="32">
       <c r="B12" s="64" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D12" s="66">
         <v>64</v>
@@ -16214,13 +16215,13 @@
         <v>72</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H12" s="66" t="s">
         <v>72</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16">
@@ -16400,7 +16401,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="32">
@@ -16446,7 +16447,7 @@
         <v>71</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16">
@@ -16468,7 +16469,7 @@
         <v>72</v>
       </c>
       <c r="I23" s="79" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="16">
@@ -16527,10 +16528,10 @@
       </c>
       <c r="E26" s="110"/>
       <c r="F26" s="66" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H26" s="66" t="s">
         <v>70</v>
@@ -16551,7 +16552,7 @@
       </c>
       <c r="E27" s="110"/>
       <c r="F27" s="66" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G27" s="110"/>
       <c r="H27" s="66" t="s">
@@ -16576,7 +16577,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H28" s="66" t="s">
         <v>70</v>
@@ -16771,7 +16772,7 @@
     </row>
     <row r="39" spans="2:9" ht="144.65" customHeight="1">
       <c r="B39" s="183" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C39" s="184"/>
       <c r="D39" s="184"/>
@@ -16783,7 +16784,7 @@
     </row>
     <row r="41" spans="2:9" ht="16">
       <c r="B41" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C41" s="73"/>
     </row>
@@ -16801,10 +16802,10 @@
         <v>498</v>
       </c>
       <c r="F42" s="109" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G42" s="109" t="s">
         <v>1585</v>
-      </c>
-      <c r="G42" s="109" t="s">
-        <v>1586</v>
       </c>
       <c r="H42" s="109" t="s">
         <v>499</v>
@@ -17041,10 +17042,10 @@
     </row>
     <row r="52" spans="2:9" s="73" customFormat="1" ht="32">
       <c r="B52" s="64" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D52" s="66">
         <v>64</v>
@@ -17056,13 +17057,13 @@
         <v>72</v>
       </c>
       <c r="G52" s="66" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H52" s="66" t="s">
         <v>72</v>
       </c>
       <c r="I52" s="55" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="16">
@@ -17255,7 +17256,7 @@
       </c>
       <c r="E61" s="110"/>
       <c r="F61" s="66" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G61" s="66" t="s">
         <v>70</v>
@@ -17286,7 +17287,7 @@
         <v>71</v>
       </c>
       <c r="I62" s="65" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="16">
@@ -17302,7 +17303,7 @@
       <c r="E63" s="110"/>
       <c r="F63" s="110"/>
       <c r="G63" s="66" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H63" s="66" t="s">
         <v>71</v>
@@ -17366,7 +17367,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="66" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H66" s="66" t="s">
         <v>70</v>
@@ -17408,7 +17409,7 @@
         <v>70</v>
       </c>
       <c r="G68" s="66" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H68" s="66" t="s">
         <v>70</v>
@@ -17470,7 +17471,7 @@
         <v>70</v>
       </c>
       <c r="G71" s="66" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H71" s="66" t="s">
         <v>70</v>
@@ -17514,7 +17515,7 @@
         <v>70</v>
       </c>
       <c r="G73" s="66" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H73" s="66" t="s">
         <v>71</v>
@@ -17590,7 +17591,7 @@
     </row>
     <row r="78" spans="2:9" ht="198.65" customHeight="1">
       <c r="B78" s="183" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C78" s="184"/>
       <c r="D78" s="184"/>
@@ -17667,7 +17668,7 @@
     </row>
     <row r="3" spans="2:9" ht="27.75" customHeight="1">
       <c r="B3" s="190" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C3" s="190"/>
       <c r="D3" s="190"/>
@@ -17691,10 +17692,10 @@
         <v>983</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>976</v>
@@ -17755,7 +17756,7 @@
         <v>965</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16">
@@ -17800,22 +17801,22 @@
     </row>
     <row r="12" spans="2:9" ht="32">
       <c r="B12" s="64" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C12" s="65" t="s">
         <v>1627</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>1628</v>
       </c>
       <c r="D12" s="66">
         <v>64</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16">
@@ -17935,7 +17936,7 @@
         <v>70</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="16">
@@ -17955,7 +17956,7 @@
         <v>974</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="16">
@@ -17988,7 +17989,7 @@
     </row>
     <row r="22" spans="2:7" ht="16">
       <c r="B22" s="185" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C22" s="185"/>
       <c r="D22" s="185"/>
@@ -17998,7 +17999,7 @@
     </row>
     <row r="23" spans="2:7" ht="67.5" customHeight="1">
       <c r="B23" s="183" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C23" s="184"/>
       <c r="D23" s="184"/>
@@ -18016,7 +18017,7 @@
     </row>
     <row r="25" spans="2:7" ht="16">
       <c r="B25" s="185" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C25" s="185"/>
       <c r="D25" s="185"/>
@@ -18026,7 +18027,7 @@
     </row>
     <row r="26" spans="2:7" ht="76.5" customHeight="1">
       <c r="B26" s="183" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C26" s="184"/>
       <c r="D26" s="184"/>
@@ -18036,7 +18037,7 @@
     </row>
     <row r="28" spans="2:7" ht="16">
       <c r="B28" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="27" customHeight="1">
@@ -18050,10 +18051,10 @@
         <v>977</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>976</v>
@@ -18231,24 +18232,24 @@
       </c>
       <c r="G38" s="65"/>
     </row>
-    <row r="39" spans="2:7" ht="64">
+    <row r="39" spans="2:7" ht="48">
       <c r="B39" s="64" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C39" s="65" t="s">
         <v>1627</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>1628</v>
       </c>
       <c r="D39" s="66">
         <v>64</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F39" s="66" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="16">
@@ -18427,7 +18428,7 @@
     </row>
     <row r="50" spans="2:7" ht="16">
       <c r="B50" s="185" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C50" s="185"/>
       <c r="D50" s="185"/>
@@ -18437,7 +18438,7 @@
     </row>
     <row r="51" spans="2:7" ht="148.5" customHeight="1">
       <c r="B51" s="183" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C51" s="184"/>
       <c r="D51" s="184"/>
@@ -18588,10 +18589,10 @@
     </row>
     <row r="9" spans="2:7" s="73" customFormat="1" ht="32">
       <c r="B9" s="64" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>1638</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>1639</v>
       </c>
       <c r="D9" s="66">
         <v>64</v>
@@ -18600,7 +18601,7 @@
         <v>72</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16">
@@ -18636,7 +18637,7 @@
     </row>
     <row r="13" spans="2:7" ht="55.5" customHeight="1">
       <c r="B13" s="183" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C13" s="184"/>
       <c r="D13" s="184"/>
@@ -18645,7 +18646,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="143" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -18800,10 +18801,10 @@
     </row>
     <row r="25" spans="2:6" s="73" customFormat="1" ht="32">
       <c r="B25" s="64" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>1606</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>1607</v>
       </c>
       <c r="D25" s="66">
         <v>64</v>
@@ -18812,7 +18813,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="96">
@@ -18850,7 +18851,7 @@
     </row>
     <row r="29" spans="2:6" ht="106" customHeight="1">
       <c r="B29" s="183" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C29" s="184"/>
       <c r="D29" s="184"/>
@@ -18874,136 +18875,124 @@
       <c r="F31" s="185"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="191" t="s">
         <v>287</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="192"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="197" t="s">
+      <c r="B33" s="193" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="197" t="s">
+      <c r="B34" s="193" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="202" t="s">
+      <c r="B35" s="196" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C35" s="197"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="198"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="195" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="193" t="s">
         <v>1572</v>
       </c>
-      <c r="C35" s="203"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="204"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="201" t="s">
-        <v>290</v>
-      </c>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="197" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
     </row>
     <row r="38" spans="2:6" ht="17.149999999999999" customHeight="1">
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="193" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="198"/>
-      <c r="D38" s="198"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="198"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
     </row>
     <row r="39" spans="2:6" ht="30.65" customHeight="1">
-      <c r="B39" s="197" t="s">
+      <c r="B39" s="193" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+    </row>
+    <row r="40" spans="2:6" ht="39.65" customHeight="1">
+      <c r="B40" s="193" t="s">
         <v>1591</v>
       </c>
-      <c r="C39" s="198"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-    </row>
-    <row r="40" spans="2:6" ht="39.65" customHeight="1">
-      <c r="B40" s="197" t="s">
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+    </row>
+    <row r="41" spans="2:6" ht="32.15" customHeight="1">
+      <c r="B41" s="193" t="s">
         <v>1592</v>
       </c>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-    </row>
-    <row r="41" spans="2:6" ht="32.15" customHeight="1">
-      <c r="B41" s="197" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
     </row>
     <row r="42" spans="2:6" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B42" s="191" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="193"/>
+      <c r="B42" s="199" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C42" s="200"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="201"/>
     </row>
     <row r="43" spans="2:6" ht="12" customHeight="1">
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="199" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
+      <c r="C43" s="200"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="201"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="202" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="196"/>
+      <c r="C44" s="203"/>
+      <c r="D44" s="203"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B35:F35"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B37:F37"/>
@@ -19012,6 +19001,18 @@
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19109,10 +19110,10 @@
     </row>
     <row r="7" spans="1:6" s="73" customFormat="1" ht="32">
       <c r="B7" s="64" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>1606</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>1607</v>
       </c>
       <c r="D7" s="66">
         <v>64</v>
@@ -19121,7 +19122,7 @@
         <v>72</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
@@ -19145,7 +19146,7 @@
     <row r="10" spans="1:6" ht="30.65" customHeight="1">
       <c r="A10" s="73"/>
       <c r="B10" s="183" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C10" s="184"/>
       <c r="D10" s="184"/>
@@ -19163,7 +19164,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="73"/>
       <c r="B12" s="143" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="73"/>
@@ -19312,10 +19313,10 @@
     </row>
     <row r="21" spans="1:6" s="73" customFormat="1" ht="32">
       <c r="B21" s="64" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C21" s="65" t="s">
         <v>1645</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>1646</v>
       </c>
       <c r="D21" s="66">
         <v>64</v>
@@ -19324,7 +19325,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16">
@@ -19382,7 +19383,7 @@
     <row r="26" spans="1:6" ht="105" customHeight="1">
       <c r="A26" s="73"/>
       <c r="B26" s="183" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C26" s="184"/>
       <c r="D26" s="184"/>

--- a/Downloadable Files/Integrated API Specifications_20250217.xlsx
+++ b/Downloadable Files/Integrated API Specifications_20250217.xlsx
@@ -5892,7 +5892,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Shinhan Securities</t>
+    <t>Shinhan Financial Investment</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7146,72 +7146,72 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7236,18 +7236,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7260,23 +7278,14 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7285,15 +7294,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8945,13 +8945,13 @@
       <c r="I3" s="73"/>
     </row>
     <row r="4" spans="2:9" s="32" customFormat="1" ht="24" customHeight="1">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="205" t="s">
         <v>1577</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="210"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="207"/>
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
@@ -9239,13 +9239,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="68.5" customHeight="1">
-      <c r="B27" s="205" t="s">
+      <c r="B27" s="208" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="210"/>
     </row>
     <row r="28" spans="2:6" ht="16">
       <c r="B28" s="8"/>
@@ -9322,12 +9322,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B30:F30"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B22:F22"/>
@@ -9336,6 +9330,12 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10136,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E354"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C137" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -14706,77 +14706,77 @@
     </row>
     <row r="2" spans="1:8" ht="62.25" customHeight="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="179" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="175" t="s">
         <v>1575</v>
       </c>
-      <c r="E2" s="164"/>
+      <c r="E2" s="176"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1">
       <c r="A3" s="38"/>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173" t="s">
+      <c r="C3" s="170"/>
+      <c r="D3" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="174"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="A4" s="38"/>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173" t="s">
+      <c r="C4" s="170"/>
+      <c r="D4" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="174"/>
+      <c r="E4" s="164"/>
     </row>
     <row r="5" spans="1:8" s="73" customFormat="1" ht="36" customHeight="1">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="177" t="s">
+      <c r="C5" s="170"/>
+      <c r="D5" s="171" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="178"/>
+      <c r="E5" s="172"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1">
       <c r="A6" s="38"/>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173" t="s">
+      <c r="C6" s="170"/>
+      <c r="D6" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="174"/>
+      <c r="E6" s="164"/>
     </row>
     <row r="7" spans="1:8" s="59" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173" t="s">
+      <c r="C7" s="170"/>
+      <c r="D7" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="174"/>
+      <c r="E7" s="164"/>
     </row>
     <row r="8" spans="1:8" s="59" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173" t="s">
+      <c r="C8" s="170"/>
+      <c r="D8" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="E8" s="174"/>
+      <c r="E8" s="164"/>
     </row>
     <row r="9" spans="1:8" ht="35.5" customHeight="1" thickBot="1">
       <c r="A9" s="38"/>
@@ -14799,33 +14799,33 @@
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="163" t="s">
+      <c r="C11" s="174"/>
+      <c r="D11" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="164"/>
+      <c r="E11" s="176"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="173" t="s">
+      <c r="C12" s="178"/>
+      <c r="D12" s="163" t="s">
         <v>1593</v>
       </c>
-      <c r="E12" s="174"/>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:8" s="73" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="181" t="s">
         <v>1614</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
     </row>
     <row r="14" spans="1:8" s="73" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B14" s="148"/>
@@ -14834,14 +14834,14 @@
       <c r="E14" s="149"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="179" t="s">
         <v>1612</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163" t="s">
+      <c r="C15" s="180"/>
+      <c r="D15" s="175" t="s">
         <v>1613</v>
       </c>
-      <c r="E15" s="164"/>
+      <c r="E15" s="176"/>
     </row>
     <row r="16" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="B16" s="165" t="s">
@@ -14874,7 +14874,7 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="161" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="91" t="s">
@@ -14888,7 +14888,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="175"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="91" t="s">
         <v>392</v>
       </c>
@@ -14900,7 +14900,7 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="175"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="91" t="s">
         <v>393</v>
       </c>
@@ -14912,7 +14912,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="175"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="91" t="s">
         <v>400</v>
       </c>
@@ -14924,7 +14924,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="175"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="91" t="s">
         <v>119</v>
       </c>
@@ -14936,7 +14936,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="176"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="92" t="s">
         <v>443</v>
       </c>
@@ -14989,6 +14989,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D3:E3"/>
@@ -15005,16 +15015,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -18875,124 +18875,136 @@
       <c r="F31" s="185"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="191" t="s">
+      <c r="B32" s="199" t="s">
         <v>287</v>
       </c>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="197" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="202" t="s">
         <v>1571</v>
       </c>
-      <c r="C35" s="197"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="198"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="204"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="195" t="s">
+      <c r="B36" s="201" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="197" t="s">
         <v>1572</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
     </row>
     <row r="38" spans="2:6" ht="17.149999999999999" customHeight="1">
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="197" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
     </row>
     <row r="39" spans="2:6" ht="30.65" customHeight="1">
-      <c r="B39" s="193" t="s">
+      <c r="B39" s="197" t="s">
         <v>1590</v>
       </c>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
     </row>
     <row r="40" spans="2:6" ht="39.65" customHeight="1">
-      <c r="B40" s="193" t="s">
+      <c r="B40" s="197" t="s">
         <v>1591</v>
       </c>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
     </row>
     <row r="41" spans="2:6" ht="32.15" customHeight="1">
-      <c r="B41" s="193" t="s">
+      <c r="B41" s="197" t="s">
         <v>1592</v>
       </c>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
     </row>
     <row r="42" spans="2:6" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B42" s="199" t="s">
+      <c r="B42" s="191" t="s">
         <v>1570</v>
       </c>
-      <c r="C42" s="200"/>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="201"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="193"/>
     </row>
     <row r="43" spans="2:6" ht="12" customHeight="1">
-      <c r="B43" s="199" t="s">
+      <c r="B43" s="191" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="200"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="201"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="192"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="202" t="s">
+      <c r="B44" s="194" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="203"/>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="204"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B37:F37"/>
@@ -19001,18 +19013,6 @@
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Downloadable Files/Integrated API Specifications_20250217.xlsx
+++ b/Downloadable Files/Integrated API Specifications_20250217.xlsx
@@ -31,8 +31,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>차형주-해외영업팀</author>
+  </authors>
+  <commentList>
+    <comment ref="I49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For outStatCd and outRsltCd, only 0021/0000 will be returned for a successfull transaction. For a failed transaction the response will be 0031/Result code. You can use the status field on result inquiry to check the transaction failure status.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>차형주-해외영업팀</author>
+  </authors>
+  <commentList>
+    <comment ref="F22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">For outStatCd and outRsltCd, only 0021/0000 will be returned for a successfull transaction. For a failed transaction the response will be 0031/Result code. You can use the status field to check the transaction failure status.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="1671">
   <si>
     <t>PRMTR_NM</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -4400,9 +4459,6 @@
     <t>Choheung Asset Management</t>
   </si>
   <si>
-    <t>Chohung Asset Management</t>
-  </si>
-  <si>
     <t>Hanil Asset Management</t>
   </si>
   <si>
@@ -4430,9 +4486,6 @@
     <t>Landmark Asset Management</t>
   </si>
   <si>
-    <t>Mirae Asset Asset Management</t>
-  </si>
-  <si>
     <t>Sejong Asset Management</t>
   </si>
   <si>
@@ -4464,9 +4517,6 @@
   </si>
   <si>
     <t>Macquarie IMM Asset Management</t>
-  </si>
-  <si>
-    <t>IBK SG Asset Management</t>
   </si>
   <si>
     <t>Plus Asset Management</t>
@@ -5878,11 +5928,6 @@
   </si>
   <si>
     <t>Hash Key Verification for Security 
-- outStatCd+trdDt+trdTm+mchtId+mchtTrdNo+sellAmt OR buyAmt(remitAmt for RMT(USD) and RMT(KRW)(plain text)+Hash Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hash Key Verification for Security 
 -outStatCd+trdDt+trdTm+mchtId+mchtTrdNo+remitAmt(plaintext)+Hash Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5893,6 +5938,63 @@
   </si>
   <si>
     <t>Shinhan Financial Investment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed vaccountno on A2 response parameter from required -&gt; Unmarked</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Key Verification for Security 
+- outStatCd+trdDt+trdTm+mchtId+mchtTrdNo+sellAmt OR buyAmt(remitAmt for RMT(USD) and RMT(KRW)(plain text)+Hash Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barclays</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Construction Bank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morgan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＩＢＲＤ－ＣＴＦ（Fund）　　</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＡＤＢ－ＴＡＳＦ（Fund）　　</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＡＦＤＢ－ＫＣＴ（Fund）　　</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＥＢＲＤ－ＴＣＦ（Fund）　　</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joo Eun Asset Management</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mirae Asset Management</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBKSG Asset Management</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5900,7 +6002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -6163,6 +6265,26 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -6662,7 +6784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7116,6 +7238,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7146,36 +7271,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7188,30 +7331,12 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7236,6 +7361,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7254,29 +7403,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7285,15 +7419,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7442,217 +7567,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>629715</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>151034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>547077</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>371231</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7565869" y="4210149"/>
-          <a:ext cx="2139862" cy="1451120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>For outStatCd and outRsltCd, only</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> 0021/0000 will be returned for a successfull transaction. For a failed transaction the response will be 0031/Result code. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>You</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> can use the status field to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>check the transaction failure status.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>159468</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>30169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>596498</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>119816</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="오른쪽 화살표 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7164006" y="5315323"/>
-          <a:ext cx="437030" cy="294801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8029,50 +7943,50 @@
     <row r="7" spans="1:10" ht="14.5" customHeight="1">
       <c r="A7" s="28"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="152" t="s">
         <v>540</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="23"/>
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1">
       <c r="A8" s="28"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
       <c r="I8" s="23"/>
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" customHeight="1">
       <c r="A9" s="28"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="157"/>
       <c r="I9" s="23"/>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="14.5" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
       <c r="I10" s="23"/>
       <c r="J10" s="21"/>
     </row>
@@ -8104,10 +8018,10 @@
       <c r="A13" s="28"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="21"/>
@@ -8567,15 +8481,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="32" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -8675,26 +8589,26 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:9" ht="16">
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="186" t="s">
         <v>962</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
     </row>
     <row r="12" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="184" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="143" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -8855,22 +8769,22 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="2:6" ht="16">
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
     </row>
     <row r="26" spans="2:6" ht="85.5" customHeight="1">
-      <c r="B26" s="183" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
+      <c r="B26" s="184" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
     </row>
     <row r="27" spans="2:6" ht="16">
       <c r="B27" s="8"/>
@@ -8917,41 +8831,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="32" customFormat="1" ht="33" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="73"/>
       <c r="H2" s="73"/>
       <c r="I2" s="73"/>
     </row>
     <row r="3" spans="2:9" s="32" customFormat="1" ht="33" customHeight="1">
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="187" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="189"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
     </row>
     <row r="4" spans="2:9" s="32" customFormat="1" ht="24" customHeight="1">
-      <c r="B4" s="205" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="B4" s="209" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
@@ -9199,22 +9113,22 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="2:6" ht="18" customHeight="1">
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="186" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
     </row>
     <row r="23" spans="2:6" ht="81.650000000000006" customHeight="1">
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="184" t="s">
         <v>503</v>
       </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
     </row>
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="2" t="s">
@@ -9239,13 +9153,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="68.5" customHeight="1">
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="206" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="210"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="208"/>
     </row>
     <row r="28" spans="2:6" ht="16">
       <c r="B28" s="8"/>
@@ -9255,22 +9169,22 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
     </row>
     <row r="31" spans="2:6" ht="16">
       <c r="B31" s="8"/>
@@ -9280,40 +9194,40 @@
       <c r="F31" s="60"/>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B32" s="185" t="s">
+      <c r="B32" s="186" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="183" t="s">
+      <c r="B33" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
     </row>
     <row r="35" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B35" s="185" t="s">
+      <c r="B35" s="186" t="s">
         <v>334</v>
       </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="184" t="s">
         <v>335</v>
       </c>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="73" t="s">
@@ -9322,6 +9236,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B30:F30"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B22:F22"/>
@@ -9330,12 +9250,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9414,7 +9328,7 @@
         <v>960</v>
       </c>
       <c r="C6" s="136" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D6" s="137" t="s">
         <v>961</v>
@@ -9634,21 +9548,21 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="106" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B2" s="211" t="s">
-        <v>1578</v>
+        <v>1576</v>
+      </c>
+      <c r="B2" s="212" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.5" thickBot="1">
       <c r="A3" s="107" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B3" s="212"/>
+        <v>1577</v>
+      </c>
+      <c r="B3" s="213"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1">
-      <c r="A4" s="213"/>
-      <c r="B4" s="213"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="107">
@@ -9795,8 +9709,8 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1">
-      <c r="A23" s="214"/>
-      <c r="B23" s="214"/>
+      <c r="A23" s="215"/>
+      <c r="B23" s="215"/>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1">
       <c r="A24" s="107">
@@ -10136,8 +10050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E354"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C137" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -10152,16 +10066,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17">
       <c r="B2" s="118" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C2" s="118" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D2" s="118" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E2" s="118" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="17">
@@ -10172,7 +10086,7 @@
         <v>1035</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E3" s="115"/>
     </row>
@@ -10181,10 +10095,10 @@
         <v>958</v>
       </c>
       <c r="C4" s="127" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E4" s="115"/>
     </row>
@@ -10196,7 +10110,7 @@
         <v>1036</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E5" s="115"/>
     </row>
@@ -10208,7 +10122,7 @@
         <v>1003</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E6" s="115"/>
     </row>
@@ -10220,7 +10134,7 @@
         <v>1004</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E7" s="115"/>
     </row>
@@ -10232,7 +10146,7 @@
         <v>1037</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E8" s="115"/>
     </row>
@@ -10241,25 +10155,25 @@
         <v>953</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E9" s="115"/>
     </row>
     <row r="10" spans="2:5" ht="17">
       <c r="B10" s="116" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D10" s="115" t="s">
         <v>1596</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="E10" s="115" t="s">
         <v>1597</v>
-      </c>
-      <c r="D10" s="115" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E10" s="115" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17">
@@ -10270,7 +10184,7 @@
         <v>1038</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E11" s="115"/>
     </row>
@@ -10279,10 +10193,10 @@
         <v>951</v>
       </c>
       <c r="C12" s="127" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E12" s="115"/>
     </row>
@@ -10294,7 +10208,7 @@
         <v>1039</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E13" s="115"/>
     </row>
@@ -10306,7 +10220,7 @@
         <v>1040</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="E14" s="115"/>
     </row>
@@ -10318,7 +10232,7 @@
         <v>1041</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E15" s="115"/>
     </row>
@@ -10330,7 +10244,7 @@
         <v>1042</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="E16" s="115"/>
     </row>
@@ -10342,7 +10256,7 @@
         <v>1043</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E17" s="115"/>
     </row>
@@ -10351,10 +10265,10 @@
         <v>945</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D18" s="115" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E18" s="115"/>
     </row>
@@ -10366,7 +10280,7 @@
         <v>1044</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="E19" s="115"/>
     </row>
@@ -10378,7 +10292,7 @@
         <v>1045</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E20" s="115"/>
     </row>
@@ -10390,7 +10304,7 @@
         <v>1046</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E21" s="115"/>
     </row>
@@ -10402,7 +10316,7 @@
         <v>1047</v>
       </c>
       <c r="D22" s="115" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="E22" s="115"/>
     </row>
@@ -10414,7 +10328,7 @@
         <v>1048</v>
       </c>
       <c r="D23" s="115" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="E23" s="115"/>
     </row>
@@ -10426,7 +10340,7 @@
         <v>1049</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E24" s="115"/>
     </row>
@@ -10438,7 +10352,7 @@
         <v>1005</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="E25" s="115"/>
     </row>
@@ -10462,7 +10376,7 @@
         <v>1006</v>
       </c>
       <c r="D27" s="115" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E27" s="115"/>
     </row>
@@ -10474,7 +10388,7 @@
         <v>1007</v>
       </c>
       <c r="D28" s="115" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E28" s="115"/>
     </row>
@@ -10486,7 +10400,7 @@
         <v>1008</v>
       </c>
       <c r="D29" s="115" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="E29" s="115"/>
     </row>
@@ -10510,7 +10424,7 @@
         <v>1009</v>
       </c>
       <c r="D31" s="115" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="E31" s="115"/>
     </row>
@@ -10534,7 +10448,7 @@
         <v>1010</v>
       </c>
       <c r="D33" s="115" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E33" s="115"/>
     </row>
@@ -10594,7 +10508,7 @@
         <v>1011</v>
       </c>
       <c r="D38" s="115" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="E38" s="115"/>
     </row>
@@ -10690,7 +10604,7 @@
         <v>1012</v>
       </c>
       <c r="D46" s="115" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E46" s="115"/>
     </row>
@@ -10714,7 +10628,7 @@
         <v>1013</v>
       </c>
       <c r="D48" s="115" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="E48" s="115"/>
     </row>
@@ -10750,7 +10664,7 @@
         <v>1014</v>
       </c>
       <c r="D51" s="115" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="E51" s="115"/>
     </row>
@@ -10762,7 +10676,7 @@
         <v>1015</v>
       </c>
       <c r="D52" s="115" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E52" s="115"/>
     </row>
@@ -10786,7 +10700,7 @@
         <v>1016</v>
       </c>
       <c r="D54" s="115" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E54" s="115"/>
     </row>
@@ -10834,7 +10748,7 @@
         <v>1017</v>
       </c>
       <c r="D58" s="115" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="E58" s="115"/>
     </row>
@@ -10870,7 +10784,7 @@
         <v>1018</v>
       </c>
       <c r="D61" s="115" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="E61" s="115"/>
     </row>
@@ -10930,7 +10844,7 @@
         <v>1019</v>
       </c>
       <c r="D66" s="115" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E66" s="115"/>
     </row>
@@ -10942,7 +10856,7 @@
         <v>1020</v>
       </c>
       <c r="D67" s="115" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="E67" s="115"/>
     </row>
@@ -10987,7 +10901,7 @@
         <v>862</v>
       </c>
       <c r="C71" s="127" t="s">
-        <v>861</v>
+        <v>1662</v>
       </c>
       <c r="D71" s="115" t="s">
         <v>861</v>
@@ -11038,7 +10952,7 @@
         <v>1021</v>
       </c>
       <c r="D75" s="115" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="E75" s="115"/>
     </row>
@@ -11086,7 +11000,7 @@
         <v>1022</v>
       </c>
       <c r="D79" s="115" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E79" s="115"/>
     </row>
@@ -11122,7 +11036,7 @@
         <v>1023</v>
       </c>
       <c r="D82" s="115" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E82" s="115"/>
     </row>
@@ -11134,7 +11048,7 @@
         <v>1024</v>
       </c>
       <c r="D83" s="115" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="E83" s="115"/>
     </row>
@@ -11146,7 +11060,7 @@
         <v>1025</v>
       </c>
       <c r="D84" s="115" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E84" s="115"/>
     </row>
@@ -11155,10 +11069,10 @@
         <v>839</v>
       </c>
       <c r="C85" s="127" t="s">
-        <v>1025</v>
+        <v>1663</v>
       </c>
       <c r="D85" s="115" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="E85" s="115"/>
     </row>
@@ -11167,10 +11081,10 @@
         <v>838</v>
       </c>
       <c r="C86" s="127" t="s">
-        <v>1025</v>
+        <v>1660</v>
       </c>
       <c r="D86" s="115" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="E86" s="115"/>
     </row>
@@ -11179,10 +11093,10 @@
         <v>837</v>
       </c>
       <c r="C87" s="127" t="s">
-        <v>1025</v>
+        <v>1661</v>
       </c>
       <c r="D87" s="115" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E87" s="115"/>
     </row>
@@ -11194,7 +11108,7 @@
         <v>1026</v>
       </c>
       <c r="D88" s="115" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="E88" s="115"/>
     </row>
@@ -11206,7 +11120,7 @@
         <v>1027</v>
       </c>
       <c r="D89" s="115" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E89" s="115"/>
     </row>
@@ -11218,7 +11132,7 @@
         <v>1028</v>
       </c>
       <c r="D90" s="115" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E90" s="115"/>
     </row>
@@ -11230,7 +11144,7 @@
         <v>1029</v>
       </c>
       <c r="D91" s="115" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="E91" s="115"/>
     </row>
@@ -11242,7 +11156,7 @@
         <v>1030</v>
       </c>
       <c r="D92" s="115" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="E92" s="115"/>
     </row>
@@ -11254,7 +11168,7 @@
         <v>1031</v>
       </c>
       <c r="D93" s="115" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E93" s="115"/>
     </row>
@@ -11266,7 +11180,7 @@
         <v>1032</v>
       </c>
       <c r="D94" s="115" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="E94" s="115"/>
     </row>
@@ -11278,7 +11192,7 @@
         <v>1033</v>
       </c>
       <c r="D95" s="115" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="E95" s="115"/>
     </row>
@@ -11290,7 +11204,7 @@
         <v>1034</v>
       </c>
       <c r="D96" s="115" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E96" s="115"/>
     </row>
@@ -11347,7 +11261,7 @@
         <v>819</v>
       </c>
       <c r="C101" s="127" t="s">
-        <v>818</v>
+        <v>1665</v>
       </c>
       <c r="D101" s="115" t="s">
         <v>818</v>
@@ -11419,7 +11333,7 @@
         <v>807</v>
       </c>
       <c r="C107" s="127" t="s">
-        <v>806</v>
+        <v>1664</v>
       </c>
       <c r="D107" s="115" t="s">
         <v>806</v>
@@ -11479,7 +11393,7 @@
         <v>797</v>
       </c>
       <c r="C112" s="127" t="s">
-        <v>796</v>
+        <v>1666</v>
       </c>
       <c r="D112" s="115" t="s">
         <v>796</v>
@@ -11503,7 +11417,7 @@
         <v>793</v>
       </c>
       <c r="C114" s="127" t="s">
-        <v>792</v>
+        <v>1667</v>
       </c>
       <c r="D114" s="115" t="s">
         <v>792</v>
@@ -11650,7 +11564,7 @@
         <v>1050</v>
       </c>
       <c r="D126" s="115" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="E126" s="115"/>
     </row>
@@ -11662,7 +11576,7 @@
         <v>1051</v>
       </c>
       <c r="D127" s="115" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="E127" s="115"/>
     </row>
@@ -11674,7 +11588,7 @@
         <v>1052</v>
       </c>
       <c r="D128" s="115" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="E128" s="115"/>
     </row>
@@ -11686,7 +11600,7 @@
         <v>1053</v>
       </c>
       <c r="D129" s="115" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="E129" s="115"/>
     </row>
@@ -11698,7 +11612,7 @@
         <v>1054</v>
       </c>
       <c r="D130" s="115" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="E130" s="115"/>
     </row>
@@ -11710,7 +11624,7 @@
         <v>1055</v>
       </c>
       <c r="D131" s="115" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E131" s="115"/>
     </row>
@@ -11722,7 +11636,7 @@
         <v>1056</v>
       </c>
       <c r="D132" s="115" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="E132" s="115"/>
     </row>
@@ -11734,7 +11648,7 @@
         <v>1057</v>
       </c>
       <c r="D133" s="115" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="E133" s="115"/>
     </row>
@@ -11746,7 +11660,7 @@
         <v>1058</v>
       </c>
       <c r="D134" s="115" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E134" s="115"/>
     </row>
@@ -11758,7 +11672,7 @@
         <v>1059</v>
       </c>
       <c r="D135" s="115" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="E135" s="115"/>
     </row>
@@ -11770,7 +11684,7 @@
         <v>1060</v>
       </c>
       <c r="D136" s="115" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="E136" s="115"/>
     </row>
@@ -11782,7 +11696,7 @@
         <v>1061</v>
       </c>
       <c r="D137" s="115" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E137" s="115"/>
     </row>
@@ -11794,7 +11708,7 @@
         <v>1062</v>
       </c>
       <c r="D138" s="115" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="E138" s="115"/>
     </row>
@@ -11806,7 +11720,7 @@
         <v>1063</v>
       </c>
       <c r="D139" s="115" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="E139" s="115"/>
     </row>
@@ -11818,7 +11732,7 @@
         <v>1064</v>
       </c>
       <c r="D140" s="115" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="E140" s="115"/>
     </row>
@@ -11830,7 +11744,7 @@
         <v>1065</v>
       </c>
       <c r="D141" s="115" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="E141" s="115"/>
     </row>
@@ -11842,7 +11756,7 @@
         <v>1066</v>
       </c>
       <c r="D142" s="115" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E142" s="115"/>
     </row>
@@ -11854,7 +11768,7 @@
         <v>1067</v>
       </c>
       <c r="D143" s="115" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="E143" s="115"/>
     </row>
@@ -11866,7 +11780,7 @@
         <v>1068</v>
       </c>
       <c r="D144" s="115" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="E144" s="115"/>
     </row>
@@ -11878,7 +11792,7 @@
         <v>1069</v>
       </c>
       <c r="D145" s="115" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E145" s="115"/>
     </row>
@@ -11887,10 +11801,10 @@
         <v>749</v>
       </c>
       <c r="C146" s="127" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D146" s="115" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E146" s="115"/>
     </row>
@@ -11902,7 +11816,7 @@
         <v>1070</v>
       </c>
       <c r="D147" s="115" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E147" s="115"/>
     </row>
@@ -11914,7 +11828,7 @@
         <v>1071</v>
       </c>
       <c r="D148" s="115" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E148" s="115"/>
     </row>
@@ -11926,7 +11840,7 @@
         <v>1072</v>
       </c>
       <c r="D149" s="115" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E149" s="115"/>
     </row>
@@ -11938,7 +11852,7 @@
         <v>1073</v>
       </c>
       <c r="D150" s="115" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="E150" s="115"/>
     </row>
@@ -11950,7 +11864,7 @@
         <v>1074</v>
       </c>
       <c r="D151" s="115" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E151" s="115"/>
     </row>
@@ -11959,10 +11873,10 @@
         <v>743</v>
       </c>
       <c r="C152" s="127" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D152" s="115" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E152" s="115"/>
     </row>
@@ -11974,7 +11888,7 @@
         <v>1075</v>
       </c>
       <c r="D153" s="115" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="E153" s="115"/>
     </row>
@@ -11986,7 +11900,7 @@
         <v>1076</v>
       </c>
       <c r="D154" s="115" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E154" s="115"/>
     </row>
@@ -11998,7 +11912,7 @@
         <v>1077</v>
       </c>
       <c r="D155" s="115" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E155" s="115"/>
     </row>
@@ -12010,7 +11924,7 @@
         <v>1078</v>
       </c>
       <c r="D156" s="115" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E156" s="115"/>
     </row>
@@ -12022,7 +11936,7 @@
         <v>1079</v>
       </c>
       <c r="D157" s="115" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E157" s="115"/>
     </row>
@@ -12034,7 +11948,7 @@
         <v>1080</v>
       </c>
       <c r="D158" s="115" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E158" s="115"/>
     </row>
@@ -12046,7 +11960,7 @@
         <v>1081</v>
       </c>
       <c r="D159" s="115" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E159" s="115"/>
     </row>
@@ -12058,7 +11972,7 @@
         <v>1082</v>
       </c>
       <c r="D160" s="115" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E160" s="115"/>
     </row>
@@ -12070,7 +11984,7 @@
         <v>1083</v>
       </c>
       <c r="D161" s="115" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E161" s="115"/>
     </row>
@@ -12082,7 +11996,7 @@
         <v>1084</v>
       </c>
       <c r="D162" s="115" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E162" s="115"/>
     </row>
@@ -12094,7 +12008,7 @@
         <v>1085</v>
       </c>
       <c r="D163" s="115" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E163" s="115"/>
     </row>
@@ -12106,7 +12020,7 @@
         <v>1086</v>
       </c>
       <c r="D164" s="115" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E164" s="115"/>
     </row>
@@ -12118,7 +12032,7 @@
         <v>1087</v>
       </c>
       <c r="D165" s="115" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E165" s="115"/>
     </row>
@@ -12130,7 +12044,7 @@
         <v>1088</v>
       </c>
       <c r="D166" s="115" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E166" s="115"/>
     </row>
@@ -12142,7 +12056,7 @@
         <v>1089</v>
       </c>
       <c r="D167" s="115" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E167" s="115"/>
     </row>
@@ -12154,7 +12068,7 @@
         <v>1090</v>
       </c>
       <c r="D168" s="115" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E168" s="115"/>
     </row>
@@ -12166,7 +12080,7 @@
         <v>1091</v>
       </c>
       <c r="D169" s="115" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E169" s="115"/>
     </row>
@@ -12178,7 +12092,7 @@
         <v>1092</v>
       </c>
       <c r="D170" s="115" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E170" s="115"/>
     </row>
@@ -12190,7 +12104,7 @@
         <v>1093</v>
       </c>
       <c r="D171" s="115" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E171" s="115"/>
     </row>
@@ -12202,7 +12116,7 @@
         <v>1094</v>
       </c>
       <c r="D172" s="115" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E172" s="115"/>
     </row>
@@ -12214,7 +12128,7 @@
         <v>1095</v>
       </c>
       <c r="D173" s="115" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E173" s="115"/>
     </row>
@@ -12226,7 +12140,7 @@
         <v>1096</v>
       </c>
       <c r="D174" s="115" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E174" s="115"/>
     </row>
@@ -12238,7 +12152,7 @@
         <v>1097</v>
       </c>
       <c r="D175" s="115" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E175" s="115"/>
     </row>
@@ -12250,7 +12164,7 @@
         <v>1098</v>
       </c>
       <c r="D176" s="115" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E176" s="115"/>
     </row>
@@ -12262,7 +12176,7 @@
         <v>1099</v>
       </c>
       <c r="D177" s="115" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="E177" s="115"/>
     </row>
@@ -12274,7 +12188,7 @@
         <v>1100</v>
       </c>
       <c r="D178" s="115" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E178" s="115"/>
     </row>
@@ -12286,7 +12200,7 @@
         <v>1101</v>
       </c>
       <c r="D179" s="115" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E179" s="115"/>
     </row>
@@ -12298,7 +12212,7 @@
         <v>1102</v>
       </c>
       <c r="D180" s="115" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E180" s="115"/>
     </row>
@@ -12310,7 +12224,7 @@
         <v>1103</v>
       </c>
       <c r="D181" s="115" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E181" s="115"/>
     </row>
@@ -12322,7 +12236,7 @@
         <v>1104</v>
       </c>
       <c r="D182" s="115" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E182" s="115"/>
     </row>
@@ -12334,7 +12248,7 @@
         <v>1105</v>
       </c>
       <c r="D183" s="115" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="E183" s="115"/>
     </row>
@@ -12346,7 +12260,7 @@
         <v>1106</v>
       </c>
       <c r="D184" s="115" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E184" s="115"/>
     </row>
@@ -12358,7 +12272,7 @@
         <v>1107</v>
       </c>
       <c r="D185" s="115" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E185" s="115"/>
     </row>
@@ -12370,7 +12284,7 @@
         <v>1108</v>
       </c>
       <c r="D186" s="115" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="E186" s="115"/>
     </row>
@@ -12382,7 +12296,7 @@
         <v>1109</v>
       </c>
       <c r="D187" s="115" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E187" s="115"/>
     </row>
@@ -12394,7 +12308,7 @@
         <v>1110</v>
       </c>
       <c r="D188" s="115" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E188" s="115"/>
     </row>
@@ -12406,7 +12320,7 @@
         <v>1111</v>
       </c>
       <c r="D189" s="115" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E189" s="115"/>
     </row>
@@ -12418,7 +12332,7 @@
         <v>1112</v>
       </c>
       <c r="D190" s="115" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="E190" s="115"/>
     </row>
@@ -12430,7 +12344,7 @@
         <v>1113</v>
       </c>
       <c r="D191" s="115" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E191" s="115"/>
     </row>
@@ -12442,7 +12356,7 @@
         <v>1114</v>
       </c>
       <c r="D192" s="115" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E192" s="115"/>
     </row>
@@ -12454,7 +12368,7 @@
         <v>1115</v>
       </c>
       <c r="D193" s="115" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E193" s="115"/>
     </row>
@@ -12466,7 +12380,7 @@
         <v>1116</v>
       </c>
       <c r="D194" s="115" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E194" s="115"/>
     </row>
@@ -12478,7 +12392,7 @@
         <v>1117</v>
       </c>
       <c r="D195" s="115" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="E195" s="115"/>
     </row>
@@ -12490,7 +12404,7 @@
         <v>1118</v>
       </c>
       <c r="D196" s="115" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E196" s="115"/>
     </row>
@@ -12502,7 +12416,7 @@
         <v>1119</v>
       </c>
       <c r="D197" s="115" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E197" s="115"/>
     </row>
@@ -12514,7 +12428,7 @@
         <v>1120</v>
       </c>
       <c r="D198" s="115" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E198" s="115"/>
     </row>
@@ -12526,7 +12440,7 @@
         <v>1121</v>
       </c>
       <c r="D199" s="115" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E199" s="115"/>
     </row>
@@ -12538,7 +12452,7 @@
         <v>1122</v>
       </c>
       <c r="D200" s="115" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E200" s="115"/>
     </row>
@@ -12550,7 +12464,7 @@
         <v>1123</v>
       </c>
       <c r="D201" s="115" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E201" s="115"/>
     </row>
@@ -12562,7 +12476,7 @@
         <v>1124</v>
       </c>
       <c r="D202" s="115" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E202" s="115"/>
     </row>
@@ -12574,7 +12488,7 @@
         <v>1125</v>
       </c>
       <c r="D203" s="115" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E203" s="115"/>
     </row>
@@ -12586,7 +12500,7 @@
         <v>1126</v>
       </c>
       <c r="D204" s="115" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="E204" s="115"/>
     </row>
@@ -12598,7 +12512,7 @@
         <v>1127</v>
       </c>
       <c r="D205" s="115" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E205" s="115"/>
     </row>
@@ -12610,7 +12524,7 @@
         <v>1128</v>
       </c>
       <c r="D206" s="115" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E206" s="115"/>
     </row>
@@ -12622,7 +12536,7 @@
         <v>1129</v>
       </c>
       <c r="D207" s="115" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="E207" s="115"/>
     </row>
@@ -12634,7 +12548,7 @@
         <v>1130</v>
       </c>
       <c r="D208" s="115" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E208" s="115"/>
     </row>
@@ -12646,7 +12560,7 @@
         <v>1131</v>
       </c>
       <c r="D209" s="115" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="E209" s="115"/>
     </row>
@@ -12658,7 +12572,7 @@
         <v>1132</v>
       </c>
       <c r="D210" s="115" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="E210" s="115"/>
     </row>
@@ -12670,7 +12584,7 @@
         <v>1133</v>
       </c>
       <c r="D211" s="115" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E211" s="115"/>
     </row>
@@ -12682,7 +12596,7 @@
         <v>1134</v>
       </c>
       <c r="D212" s="115" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E212" s="115"/>
     </row>
@@ -12694,7 +12608,7 @@
         <v>1135</v>
       </c>
       <c r="D213" s="115" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E213" s="115"/>
     </row>
@@ -12706,7 +12620,7 @@
         <v>1136</v>
       </c>
       <c r="D214" s="115" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E214" s="115"/>
     </row>
@@ -12718,7 +12632,7 @@
         <v>1137</v>
       </c>
       <c r="D215" s="115" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E215" s="115"/>
     </row>
@@ -12730,7 +12644,7 @@
         <v>1138</v>
       </c>
       <c r="D216" s="115" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="E216" s="115"/>
     </row>
@@ -12742,7 +12656,7 @@
         <v>1139</v>
       </c>
       <c r="D217" s="115" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E217" s="115"/>
     </row>
@@ -12754,7 +12668,7 @@
         <v>1140</v>
       </c>
       <c r="D218" s="115" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E218" s="115"/>
     </row>
@@ -12766,7 +12680,7 @@
         <v>1141</v>
       </c>
       <c r="D219" s="115" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E219" s="115"/>
     </row>
@@ -12778,7 +12692,7 @@
         <v>1142</v>
       </c>
       <c r="D220" s="115" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E220" s="115"/>
     </row>
@@ -12790,7 +12704,7 @@
         <v>1143</v>
       </c>
       <c r="D221" s="115" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E221" s="115"/>
     </row>
@@ -12802,7 +12716,7 @@
         <v>1144</v>
       </c>
       <c r="D222" s="115" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="E222" s="115"/>
     </row>
@@ -12814,7 +12728,7 @@
         <v>1145</v>
       </c>
       <c r="D223" s="115" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E223" s="115"/>
     </row>
@@ -12826,7 +12740,7 @@
         <v>1146</v>
       </c>
       <c r="D224" s="115" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E224" s="115"/>
     </row>
@@ -12838,7 +12752,7 @@
         <v>1147</v>
       </c>
       <c r="D225" s="115" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E225" s="115"/>
     </row>
@@ -12850,7 +12764,7 @@
         <v>1148</v>
       </c>
       <c r="D226" s="115" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E226" s="115"/>
     </row>
@@ -12862,7 +12776,7 @@
         <v>1149</v>
       </c>
       <c r="D227" s="115" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E227" s="115"/>
     </row>
@@ -12871,10 +12785,10 @@
         <v>667</v>
       </c>
       <c r="C228" s="127" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D228" s="115" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E228" s="115"/>
     </row>
@@ -12886,7 +12800,7 @@
         <v>1150</v>
       </c>
       <c r="D229" s="115" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E229" s="115"/>
     </row>
@@ -12898,7 +12812,7 @@
         <v>1151</v>
       </c>
       <c r="D230" s="115" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E230" s="115"/>
     </row>
@@ -12910,7 +12824,7 @@
         <v>1152</v>
       </c>
       <c r="D231" s="115" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E231" s="115"/>
     </row>
@@ -12922,7 +12836,7 @@
         <v>1153</v>
       </c>
       <c r="D232" s="115" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E232" s="115"/>
     </row>
@@ -12934,7 +12848,7 @@
         <v>1154</v>
       </c>
       <c r="D233" s="115" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E233" s="115"/>
     </row>
@@ -12946,7 +12860,7 @@
         <v>1155</v>
       </c>
       <c r="D234" s="115" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E234" s="115"/>
     </row>
@@ -12958,7 +12872,7 @@
         <v>1156</v>
       </c>
       <c r="D235" s="115" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E235" s="115"/>
     </row>
@@ -12970,7 +12884,7 @@
         <v>1157</v>
       </c>
       <c r="D236" s="115" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E236" s="115"/>
     </row>
@@ -12982,7 +12896,7 @@
         <v>1158</v>
       </c>
       <c r="D237" s="115" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="E237" s="115"/>
     </row>
@@ -12994,7 +12908,7 @@
         <v>1159</v>
       </c>
       <c r="D238" s="115" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E238" s="115"/>
     </row>
@@ -13006,7 +12920,7 @@
         <v>1160</v>
       </c>
       <c r="D239" s="115" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E239" s="115"/>
     </row>
@@ -13018,7 +12932,7 @@
         <v>1161</v>
       </c>
       <c r="D240" s="115" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E240" s="115"/>
     </row>
@@ -13030,7 +12944,7 @@
         <v>1162</v>
       </c>
       <c r="D241" s="115" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E241" s="115"/>
     </row>
@@ -13042,7 +12956,7 @@
         <v>1163</v>
       </c>
       <c r="D242" s="115" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E242" s="115"/>
     </row>
@@ -13054,7 +12968,7 @@
         <v>1164</v>
       </c>
       <c r="D243" s="115" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E243" s="115"/>
     </row>
@@ -13066,7 +12980,7 @@
         <v>1165</v>
       </c>
       <c r="D244" s="115" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E244" s="115"/>
     </row>
@@ -13078,7 +12992,7 @@
         <v>1166</v>
       </c>
       <c r="D245" s="115" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E245" s="115"/>
     </row>
@@ -13090,7 +13004,7 @@
         <v>1167</v>
       </c>
       <c r="D246" s="115" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E246" s="115"/>
     </row>
@@ -13102,7 +13016,7 @@
         <v>1168</v>
       </c>
       <c r="D247" s="115" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E247" s="115"/>
     </row>
@@ -13114,7 +13028,7 @@
         <v>1169</v>
       </c>
       <c r="D248" s="115" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E248" s="115"/>
     </row>
@@ -13126,7 +13040,7 @@
         <v>1170</v>
       </c>
       <c r="D249" s="115" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E249" s="115"/>
     </row>
@@ -13138,7 +13052,7 @@
         <v>1171</v>
       </c>
       <c r="D250" s="115" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="E250" s="115"/>
     </row>
@@ -13147,10 +13061,10 @@
         <v>644</v>
       </c>
       <c r="C251" s="127" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D251" s="115" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E251" s="115"/>
     </row>
@@ -13159,10 +13073,10 @@
         <v>643</v>
       </c>
       <c r="C252" s="132" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D252" s="115" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="E252" s="115"/>
     </row>
@@ -13171,10 +13085,10 @@
         <v>642</v>
       </c>
       <c r="C253" s="129" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D253" s="131" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E253" s="115"/>
     </row>
@@ -13183,10 +13097,10 @@
         <v>641</v>
       </c>
       <c r="C254" s="127" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D254" s="115" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="E254" s="115"/>
     </row>
@@ -13198,7 +13112,7 @@
         <v>1172</v>
       </c>
       <c r="D255" s="115" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="E255" s="115"/>
     </row>
@@ -13207,10 +13121,10 @@
         <v>639</v>
       </c>
       <c r="C256" s="127" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="D256" s="115" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E256" s="115"/>
     </row>
@@ -13222,7 +13136,7 @@
         <v>1173</v>
       </c>
       <c r="D257" s="115" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="E257" s="115"/>
     </row>
@@ -13234,7 +13148,7 @@
         <v>1174</v>
       </c>
       <c r="D258" s="115" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="E258" s="115"/>
     </row>
@@ -13246,7 +13160,7 @@
         <v>1175</v>
       </c>
       <c r="D259" s="115" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E259" s="115"/>
     </row>
@@ -13258,7 +13172,7 @@
         <v>1176</v>
       </c>
       <c r="D260" s="115" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E260" s="115"/>
     </row>
@@ -13270,7 +13184,7 @@
         <v>1177</v>
       </c>
       <c r="D261" s="115" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="E261" s="115"/>
     </row>
@@ -13282,7 +13196,7 @@
         <v>1178</v>
       </c>
       <c r="D262" s="115" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="E262" s="115"/>
     </row>
@@ -13294,7 +13208,7 @@
         <v>1179</v>
       </c>
       <c r="D263" s="115" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="E263" s="115"/>
     </row>
@@ -13306,7 +13220,7 @@
         <v>1180</v>
       </c>
       <c r="D264" s="115" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E264" s="115"/>
     </row>
@@ -13318,7 +13232,7 @@
         <v>1181</v>
       </c>
       <c r="D265" s="115" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E265" s="115"/>
     </row>
@@ -13330,7 +13244,7 @@
         <v>1182</v>
       </c>
       <c r="D266" s="115" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E266" s="115"/>
     </row>
@@ -13342,7 +13256,7 @@
         <v>1183</v>
       </c>
       <c r="D267" s="115" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E267" s="115"/>
     </row>
@@ -13354,7 +13268,7 @@
         <v>1184</v>
       </c>
       <c r="D268" s="115" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E268" s="115"/>
     </row>
@@ -13366,7 +13280,7 @@
         <v>1185</v>
       </c>
       <c r="D269" s="115" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="E269" s="115"/>
     </row>
@@ -13378,7 +13292,7 @@
         <v>1186</v>
       </c>
       <c r="D270" s="115" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="E270" s="115"/>
     </row>
@@ -13390,7 +13304,7 @@
         <v>1187</v>
       </c>
       <c r="D271" s="115" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E271" s="115"/>
     </row>
@@ -13402,7 +13316,7 @@
         <v>1188</v>
       </c>
       <c r="D272" s="115" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E272" s="115"/>
     </row>
@@ -13414,7 +13328,7 @@
         <v>1189</v>
       </c>
       <c r="D273" s="115" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="E273" s="115"/>
     </row>
@@ -13426,7 +13340,7 @@
         <v>1190</v>
       </c>
       <c r="D274" s="115" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="E274" s="115"/>
     </row>
@@ -13438,7 +13352,7 @@
         <v>1191</v>
       </c>
       <c r="D275" s="115" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E275" s="115"/>
     </row>
@@ -13450,7 +13364,7 @@
         <v>1192</v>
       </c>
       <c r="D276" s="115" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="E276" s="115"/>
     </row>
@@ -13462,7 +13376,7 @@
         <v>1193</v>
       </c>
       <c r="D277" s="115" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E277" s="115"/>
     </row>
@@ -13474,7 +13388,7 @@
         <v>1194</v>
       </c>
       <c r="D278" s="115" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E278" s="115"/>
     </row>
@@ -13486,7 +13400,7 @@
         <v>1195</v>
       </c>
       <c r="D279" s="115" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="E279" s="115"/>
     </row>
@@ -13498,7 +13412,7 @@
         <v>1196</v>
       </c>
       <c r="D280" s="115" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E280" s="115"/>
     </row>
@@ -13510,7 +13424,7 @@
         <v>1197</v>
       </c>
       <c r="D281" s="115" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E281" s="115"/>
     </row>
@@ -13522,7 +13436,7 @@
         <v>1198</v>
       </c>
       <c r="D282" s="115" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E282" s="115"/>
     </row>
@@ -13534,7 +13448,7 @@
         <v>1199</v>
       </c>
       <c r="D283" s="115" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E283" s="115"/>
     </row>
@@ -13546,7 +13460,7 @@
         <v>1200</v>
       </c>
       <c r="D284" s="115" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E284" s="115"/>
     </row>
@@ -13558,7 +13472,7 @@
         <v>1201</v>
       </c>
       <c r="D285" s="115" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E285" s="115"/>
     </row>
@@ -13570,7 +13484,7 @@
         <v>1202</v>
       </c>
       <c r="D286" s="115" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="E286" s="115"/>
     </row>
@@ -13582,7 +13496,7 @@
         <v>1203</v>
       </c>
       <c r="D287" s="115" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E287" s="115"/>
     </row>
@@ -13594,7 +13508,7 @@
         <v>1204</v>
       </c>
       <c r="D288" s="115" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E288" s="115"/>
     </row>
@@ -13606,7 +13520,7 @@
         <v>1205</v>
       </c>
       <c r="D289" s="115" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E289" s="115"/>
     </row>
@@ -13618,7 +13532,7 @@
         <v>1206</v>
       </c>
       <c r="D290" s="115" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E290" s="115"/>
     </row>
@@ -13630,7 +13544,7 @@
         <v>1207</v>
       </c>
       <c r="D291" s="115" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E291" s="115"/>
     </row>
@@ -13642,7 +13556,7 @@
         <v>1208</v>
       </c>
       <c r="D292" s="115" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E292" s="115"/>
     </row>
@@ -13654,7 +13568,7 @@
         <v>1209</v>
       </c>
       <c r="D293" s="115" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E293" s="115"/>
     </row>
@@ -13666,7 +13580,7 @@
         <v>1210</v>
       </c>
       <c r="D294" s="115" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E294" s="115"/>
     </row>
@@ -13678,7 +13592,7 @@
         <v>1211</v>
       </c>
       <c r="D295" s="117" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E295" s="115"/>
     </row>
@@ -13690,7 +13604,7 @@
         <v>1212</v>
       </c>
       <c r="D296" s="115" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E296" s="115"/>
     </row>
@@ -13702,7 +13616,7 @@
         <v>1213</v>
       </c>
       <c r="D297" s="115" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="E297" s="115"/>
     </row>
@@ -13714,7 +13628,7 @@
         <v>1214</v>
       </c>
       <c r="D298" s="115" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E298" s="115"/>
     </row>
@@ -13726,7 +13640,7 @@
         <v>1215</v>
       </c>
       <c r="D299" s="115" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E299" s="115"/>
     </row>
@@ -13738,7 +13652,7 @@
         <v>1216</v>
       </c>
       <c r="D300" s="115" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="E300" s="115"/>
     </row>
@@ -13750,7 +13664,7 @@
         <v>1217</v>
       </c>
       <c r="D301" s="115" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="E301" s="115"/>
     </row>
@@ -13762,7 +13676,7 @@
         <v>1218</v>
       </c>
       <c r="D302" s="115" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="E302" s="115"/>
     </row>
@@ -13774,7 +13688,7 @@
         <v>1219</v>
       </c>
       <c r="D303" s="115" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="E303" s="115"/>
     </row>
@@ -13786,7 +13700,7 @@
         <v>1220</v>
       </c>
       <c r="D304" s="115" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E304" s="115"/>
     </row>
@@ -13798,7 +13712,7 @@
         <v>1221</v>
       </c>
       <c r="D305" s="115" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="E305" s="115"/>
     </row>
@@ -13810,7 +13724,7 @@
         <v>1222</v>
       </c>
       <c r="D306" s="115" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="E306" s="115"/>
     </row>
@@ -13822,7 +13736,7 @@
         <v>1223</v>
       </c>
       <c r="D307" s="115" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="E307" s="115"/>
     </row>
@@ -13834,7 +13748,7 @@
         <v>1224</v>
       </c>
       <c r="D308" s="115" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="E308" s="115"/>
     </row>
@@ -13846,7 +13760,7 @@
         <v>1225</v>
       </c>
       <c r="D309" s="115" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="E309" s="115"/>
     </row>
@@ -13855,10 +13769,10 @@
         <v>585</v>
       </c>
       <c r="C310" s="127" t="s">
-        <v>1226</v>
+        <v>1668</v>
       </c>
       <c r="D310" s="115" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="E310" s="115"/>
     </row>
@@ -13867,10 +13781,10 @@
         <v>584</v>
       </c>
       <c r="C311" s="127" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D311" s="115" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E311" s="115"/>
     </row>
@@ -13879,10 +13793,10 @@
         <v>583</v>
       </c>
       <c r="C312" s="127" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D312" s="115" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="E312" s="115"/>
     </row>
@@ -13891,10 +13805,10 @@
         <v>582</v>
       </c>
       <c r="C313" s="127" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D313" s="115" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E313" s="115"/>
     </row>
@@ -13903,10 +13817,10 @@
         <v>581</v>
       </c>
       <c r="C314" s="127" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D314" s="115" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E314" s="115"/>
     </row>
@@ -13915,10 +13829,10 @@
         <v>580</v>
       </c>
       <c r="C315" s="127" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D315" s="115" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E315" s="115"/>
     </row>
@@ -13927,10 +13841,10 @@
         <v>579</v>
       </c>
       <c r="C316" s="127" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D316" s="115" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E316" s="115"/>
     </row>
@@ -13939,10 +13853,10 @@
         <v>578</v>
       </c>
       <c r="C317" s="127" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D317" s="115" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E317" s="115"/>
     </row>
@@ -13951,10 +13865,10 @@
         <v>577</v>
       </c>
       <c r="C318" s="127" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D318" s="115" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E318" s="115"/>
     </row>
@@ -13963,10 +13877,10 @@
         <v>576</v>
       </c>
       <c r="C319" s="127" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D319" s="115" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E319" s="115"/>
     </row>
@@ -13975,10 +13889,10 @@
         <v>575</v>
       </c>
       <c r="C320" s="127" t="s">
-        <v>1236</v>
+        <v>1669</v>
       </c>
       <c r="D320" s="115" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E320" s="115"/>
     </row>
@@ -13987,10 +13901,10 @@
         <v>574</v>
       </c>
       <c r="C321" s="127" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D321" s="115" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="E321" s="115"/>
     </row>
@@ -13999,10 +13913,10 @@
         <v>573</v>
       </c>
       <c r="C322" s="127" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D322" s="115" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E322" s="115"/>
     </row>
@@ -14011,10 +13925,10 @@
         <v>572</v>
       </c>
       <c r="C323" s="127" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D323" s="115" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="E323" s="115"/>
     </row>
@@ -14023,10 +13937,10 @@
         <v>571</v>
       </c>
       <c r="C324" s="127" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D324" s="115" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E324" s="115"/>
     </row>
@@ -14035,10 +13949,10 @@
         <v>570</v>
       </c>
       <c r="C325" s="127" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D325" s="115" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="E325" s="115"/>
     </row>
@@ -14047,10 +13961,10 @@
         <v>569</v>
       </c>
       <c r="C326" s="127" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D326" s="115" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E326" s="115"/>
     </row>
@@ -14059,10 +13973,10 @@
         <v>568</v>
       </c>
       <c r="C327" s="127" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D327" s="115" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="E327" s="115"/>
     </row>
@@ -14071,10 +13985,10 @@
         <v>567</v>
       </c>
       <c r="C328" s="127" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D328" s="115" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E328" s="115"/>
     </row>
@@ -14083,10 +13997,10 @@
         <v>566</v>
       </c>
       <c r="C329" s="127" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D329" s="115" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E329" s="115"/>
     </row>
@@ -14095,10 +14009,10 @@
         <v>565</v>
       </c>
       <c r="C330" s="127" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D330" s="115" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E330" s="115"/>
     </row>
@@ -14107,10 +14021,10 @@
         <v>564</v>
       </c>
       <c r="C331" s="127" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D331" s="115" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="E331" s="115"/>
     </row>
@@ -14119,10 +14033,10 @@
         <v>563</v>
       </c>
       <c r="C332" s="127" t="s">
-        <v>1248</v>
+        <v>1670</v>
       </c>
       <c r="D332" s="115" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E332" s="115"/>
     </row>
@@ -14131,10 +14045,10 @@
         <v>562</v>
       </c>
       <c r="C333" s="127" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D333" s="115" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E333" s="115"/>
     </row>
@@ -14143,10 +14057,10 @@
         <v>561</v>
       </c>
       <c r="C334" s="127" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D334" s="115" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E334" s="115"/>
     </row>
@@ -14155,10 +14069,10 @@
         <v>560</v>
       </c>
       <c r="C335" s="127" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D335" s="115" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E335" s="115"/>
     </row>
@@ -14167,10 +14081,10 @@
         <v>559</v>
       </c>
       <c r="C336" s="127" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D336" s="115" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="E336" s="115"/>
     </row>
@@ -14179,10 +14093,10 @@
         <v>558</v>
       </c>
       <c r="C337" s="127" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D337" s="115" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E337" s="115"/>
     </row>
@@ -14191,10 +14105,10 @@
         <v>557</v>
       </c>
       <c r="C338" s="127" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D338" s="115" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E338" s="115"/>
     </row>
@@ -14203,10 +14117,10 @@
         <v>556</v>
       </c>
       <c r="C339" s="127" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D339" s="115" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="E339" s="115"/>
     </row>
@@ -14215,10 +14129,10 @@
         <v>555</v>
       </c>
       <c r="C340" s="127" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D340" s="115" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="E340" s="115"/>
     </row>
@@ -14227,10 +14141,10 @@
         <v>554</v>
       </c>
       <c r="C341" s="127" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D341" s="115" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E341" s="115"/>
     </row>
@@ -14239,10 +14153,10 @@
         <v>553</v>
       </c>
       <c r="C342" s="127" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D342" s="115" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E342" s="115"/>
     </row>
@@ -14251,10 +14165,10 @@
         <v>552</v>
       </c>
       <c r="C343" s="127" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D343" s="115" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="E343" s="115"/>
     </row>
@@ -14263,10 +14177,10 @@
         <v>551</v>
       </c>
       <c r="C344" s="127" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D344" s="115" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E344" s="115"/>
     </row>
@@ -14275,10 +14189,10 @@
         <v>550</v>
       </c>
       <c r="C345" s="127" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D345" s="115" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="E345" s="115"/>
     </row>
@@ -14287,10 +14201,10 @@
         <v>549</v>
       </c>
       <c r="C346" s="127" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D346" s="115" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E346" s="115"/>
     </row>
@@ -14299,10 +14213,10 @@
         <v>548</v>
       </c>
       <c r="C347" s="127" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D347" s="115" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E347" s="115"/>
     </row>
@@ -14311,10 +14225,10 @@
         <v>547</v>
       </c>
       <c r="C348" s="127" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D348" s="115" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="E348" s="115"/>
     </row>
@@ -14323,10 +14237,10 @@
         <v>546</v>
       </c>
       <c r="C349" s="127" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D349" s="115" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E349" s="115"/>
     </row>
@@ -14335,10 +14249,10 @@
         <v>545</v>
       </c>
       <c r="C350" s="127" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D350" s="115" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E350" s="115"/>
     </row>
@@ -14347,10 +14261,10 @@
         <v>544</v>
       </c>
       <c r="C351" s="127" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="D351" s="115" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E351" s="115"/>
     </row>
@@ -14359,10 +14273,10 @@
         <v>543</v>
       </c>
       <c r="C352" s="127" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D352" s="115" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E352" s="115"/>
     </row>
@@ -14371,10 +14285,10 @@
         <v>542</v>
       </c>
       <c r="C353" s="127" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D353" s="115" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E353" s="115"/>
     </row>
@@ -14383,10 +14297,10 @@
         <v>541</v>
       </c>
       <c r="C354" s="127" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D354" s="115" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="E354" s="115"/>
     </row>
@@ -14400,10 +14314,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:D32"/>
+  <dimension ref="B1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14500,7 +14414,7 @@
         <v>45281</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="43.5">
@@ -14555,7 +14469,7 @@
         <v>45533</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -14566,46 +14480,52 @@
         <v>45596</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="29">
       <c r="B16" s="17" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C16" s="76">
         <v>45637</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="17" t="s">
-        <v>1616</v>
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="73" customFormat="1">
+      <c r="B17" s="151" t="s">
+        <v>1657</v>
       </c>
       <c r="C17" s="76">
-        <v>45667</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>1617</v>
+        <v>45664</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="17" t="s">
-        <v>1654</v>
+        <v>1613</v>
       </c>
       <c r="C18" s="76">
+        <v>45667</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C19" s="76">
         <v>45700</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>1652</v>
+      </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="17"/>
@@ -14667,10 +14587,15 @@
       <c r="C31" s="5"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="2:4" ht="15" thickBot="1">
-      <c r="B32" s="3"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24"/>
+    <row r="32" spans="2:4">
+      <c r="B32" s="17"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" thickBot="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -14684,8 +14609,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -14706,88 +14631,88 @@
     </row>
     <row r="2" spans="1:8" ht="62.25" customHeight="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="175" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E2" s="176"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E2" s="165"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1">
       <c r="A3" s="38"/>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="163" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="164"/>
+      <c r="E3" s="175"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="A4" s="38"/>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="163" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="164"/>
+      <c r="E4" s="175"/>
     </row>
     <row r="5" spans="1:8" s="73" customFormat="1" ht="36" customHeight="1">
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171" t="s">
+      <c r="C5" s="173"/>
+      <c r="D5" s="178" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="172"/>
+      <c r="E5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1">
       <c r="A6" s="38"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="163" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="164"/>
+      <c r="E6" s="175"/>
     </row>
     <row r="7" spans="1:8" s="59" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="163" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="164"/>
+      <c r="E7" s="175"/>
     </row>
     <row r="8" spans="1:8" s="59" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="163" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="174" t="s">
         <v>444</v>
       </c>
-      <c r="E8" s="164"/>
+      <c r="E8" s="175"/>
     </row>
     <row r="9" spans="1:8" ht="35.5" customHeight="1" thickBot="1">
       <c r="A9" s="38"/>
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E9" s="168"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="168" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E9" s="169"/>
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
@@ -14799,33 +14724,33 @@
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175" t="s">
+      <c r="C11" s="181"/>
+      <c r="D11" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="176"/>
+      <c r="E11" s="165"/>
     </row>
     <row r="12" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="163" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E12" s="164"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="174" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E12" s="175"/>
     </row>
     <row r="13" spans="1:8" s="73" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B13" s="181" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
+      <c r="B13" s="170" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
     </row>
     <row r="14" spans="1:8" s="73" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
       <c r="B14" s="148"/>
@@ -14834,24 +14759,24 @@
       <c r="E14" s="149"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B15" s="179" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="175" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E15" s="176"/>
+      <c r="B15" s="162" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E15" s="165"/>
     </row>
     <row r="16" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="B16" s="165" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E16" s="168"/>
+      <c r="B16" s="166" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E16" s="169"/>
     </row>
     <row r="17" spans="2:5" s="140" customFormat="1" ht="27.65" customHeight="1" thickBot="1">
       <c r="B17" s="141"/>
@@ -14874,7 +14799,7 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="176" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="91" t="s">
@@ -14888,7 +14813,7 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="161"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="91" t="s">
         <v>392</v>
       </c>
@@ -14900,7 +14825,7 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="161"/>
+      <c r="B21" s="176"/>
       <c r="C21" s="91" t="s">
         <v>393</v>
       </c>
@@ -14912,7 +14837,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="161"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="91" t="s">
         <v>400</v>
       </c>
@@ -14924,7 +14849,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="161"/>
+      <c r="B23" s="176"/>
       <c r="C23" s="91" t="s">
         <v>119</v>
       </c>
@@ -14936,7 +14861,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="162"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="92" t="s">
         <v>443</v>
       </c>
@@ -14989,16 +14914,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D3:E3"/>
@@ -15015,6 +14930,16 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -15036,8 +14961,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F44"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15053,15 +14978,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="32" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="4" spans="2:7" ht="16">
       <c r="B4" s="144" t="s">
@@ -15100,7 +15025,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="16">
@@ -15123,19 +15048,19 @@
     </row>
     <row r="8" spans="2:7" s="73" customFormat="1" ht="32">
       <c r="B8" s="64" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D8" s="64">
         <v>64</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="16">
@@ -15207,22 +15132,22 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:7" s="30" customFormat="1" ht="16">
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="186" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
     </row>
     <row r="15" spans="2:7" s="30" customFormat="1" ht="68.150000000000006" customHeight="1">
-      <c r="B15" s="183" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
+      <c r="B15" s="184" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
     </row>
     <row r="16" spans="2:7" s="73" customFormat="1" ht="19.5" customHeight="1">
       <c r="B16" s="139"/>
@@ -15386,19 +15311,19 @@
     </row>
     <row r="27" spans="2:6" s="73" customFormat="1" ht="32">
       <c r="B27" s="64" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D27" s="64">
         <v>64</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="30" customFormat="1" ht="16">
@@ -15543,22 +15468,22 @@
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="2:6" s="30" customFormat="1" ht="16">
-      <c r="B37" s="185" t="s">
+      <c r="B37" s="186" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
     </row>
     <row r="38" spans="2:6" s="30" customFormat="1" ht="152.5" customHeight="1">
-      <c r="B38" s="183" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
+      <c r="B38" s="184" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
     </row>
     <row r="39" spans="2:6" s="30" customFormat="1" ht="16">
       <c r="B39" s="8"/>
@@ -15586,8 +15511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -15605,15 +15530,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="32" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
         <v>510</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="4" spans="2:6" ht="16">
       <c r="B4" s="144" t="s">
@@ -15753,40 +15678,40 @@
       <c r="F13" s="60"/>
     </row>
     <row r="14" spans="2:6" ht="21.65" customHeight="1">
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="186" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
     </row>
     <row r="15" spans="2:6" ht="41.25" customHeight="1">
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="184" t="s">
         <v>435</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
     </row>
     <row r="16" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="184" t="s">
         <v>436</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
     </row>
     <row r="17" spans="2:6" ht="57.65" customHeight="1">
-      <c r="B17" s="183" t="s">
+      <c r="B17" s="184" t="s">
         <v>437</v>
       </c>
-      <c r="C17" s="184"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="86" t="s">
@@ -15947,7 +15872,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="66" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="F29" s="65"/>
     </row>
@@ -15959,22 +15884,22 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="2:6" ht="16">
-      <c r="B31" s="185" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
+      <c r="B31" s="186" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
     </row>
     <row r="32" spans="2:6" ht="112" customHeight="1">
-      <c r="B32" s="183" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
+      <c r="B32" s="184" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
     </row>
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="8"/>
@@ -16001,12 +15926,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:I80"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -16022,15 +15947,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="32" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -16058,10 +15983,10 @@
         <v>498</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H6" s="109" t="s">
         <v>499</v>
@@ -16143,7 +16068,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="138" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16">
@@ -16200,10 +16125,10 @@
     </row>
     <row r="12" spans="2:9" s="73" customFormat="1" ht="32">
       <c r="B12" s="64" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D12" s="66">
         <v>64</v>
@@ -16215,13 +16140,13 @@
         <v>72</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H12" s="66" t="s">
         <v>72</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16">
@@ -16401,7 +16326,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="32">
@@ -16447,7 +16372,7 @@
         <v>71</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16">
@@ -16469,7 +16394,7 @@
         <v>72</v>
       </c>
       <c r="I23" s="79" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="16">
@@ -16528,10 +16453,10 @@
       </c>
       <c r="E26" s="110"/>
       <c r="F26" s="66" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H26" s="66" t="s">
         <v>70</v>
@@ -16552,7 +16477,7 @@
       </c>
       <c r="E27" s="110"/>
       <c r="F27" s="66" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="G27" s="110"/>
       <c r="H27" s="66" t="s">
@@ -16577,7 +16502,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H28" s="66" t="s">
         <v>70</v>
@@ -16759,32 +16684,32 @@
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:9" ht="16">
-      <c r="B38" s="185" t="s">
+      <c r="B38" s="186" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
     </row>
     <row r="39" spans="2:9" ht="144.65" customHeight="1">
-      <c r="B39" s="183" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
+      <c r="B39" s="184" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C39" s="185"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
     </row>
     <row r="41" spans="2:9" ht="16">
       <c r="B41" s="2" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="C41" s="73"/>
     </row>
@@ -16802,10 +16727,10 @@
         <v>498</v>
       </c>
       <c r="F42" s="109" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="G42" s="109" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H42" s="109" t="s">
         <v>499</v>
@@ -17042,10 +16967,10 @@
     </row>
     <row r="52" spans="2:9" s="73" customFormat="1" ht="32">
       <c r="B52" s="64" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D52" s="66">
         <v>64</v>
@@ -17057,13 +16982,13 @@
         <v>72</v>
       </c>
       <c r="G52" s="66" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H52" s="66" t="s">
         <v>72</v>
       </c>
       <c r="I52" s="55" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="16">
@@ -17256,7 +17181,7 @@
       </c>
       <c r="E61" s="110"/>
       <c r="F61" s="66" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="G61" s="66" t="s">
         <v>70</v>
@@ -17287,7 +17212,7 @@
         <v>71</v>
       </c>
       <c r="I62" s="65" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="16">
@@ -17303,7 +17228,7 @@
       <c r="E63" s="110"/>
       <c r="F63" s="110"/>
       <c r="G63" s="66" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H63" s="66" t="s">
         <v>71</v>
@@ -17367,7 +17292,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="66" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H66" s="66" t="s">
         <v>70</v>
@@ -17409,7 +17334,7 @@
         <v>70</v>
       </c>
       <c r="G68" s="66" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H68" s="66" t="s">
         <v>70</v>
@@ -17471,7 +17396,7 @@
         <v>70</v>
       </c>
       <c r="G71" s="66" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H71" s="66" t="s">
         <v>70</v>
@@ -17515,7 +17440,7 @@
         <v>70</v>
       </c>
       <c r="G73" s="66" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H73" s="66" t="s">
         <v>71</v>
@@ -17578,28 +17503,28 @@
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="2:9" ht="16">
-      <c r="B77" s="185" t="s">
+      <c r="B77" s="186" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
-      <c r="E77" s="185"/>
-      <c r="F77" s="185"/>
-      <c r="G77" s="185"/>
-      <c r="H77" s="185"/>
-      <c r="I77" s="185"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
+      <c r="E77" s="186"/>
+      <c r="F77" s="186"/>
+      <c r="G77" s="186"/>
+      <c r="H77" s="186"/>
+      <c r="I77" s="186"/>
     </row>
     <row r="78" spans="2:9" ht="198.65" customHeight="1">
-      <c r="B78" s="183" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C78" s="184"/>
-      <c r="D78" s="184"/>
-      <c r="E78" s="184"/>
-      <c r="F78" s="184"/>
-      <c r="G78" s="184"/>
-      <c r="H78" s="184"/>
-      <c r="I78" s="184"/>
+      <c r="B78" s="184" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C78" s="185"/>
+      <c r="D78" s="185"/>
+      <c r="E78" s="185"/>
+      <c r="F78" s="185"/>
+      <c r="G78" s="185"/>
+      <c r="H78" s="185"/>
+      <c r="I78" s="185"/>
     </row>
     <row r="79" spans="2:9" ht="16">
       <c r="B79" s="8"/>
@@ -17627,6 +17552,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17634,8 +17560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -17653,28 +17579,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="32" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
         <v>985</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="190"/>
       <c r="H2" s="73"/>
       <c r="I2" s="73"/>
     </row>
     <row r="3" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B3" s="190" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
+      <c r="B3" s="191" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="11" t="s">
@@ -17692,10 +17618,10 @@
         <v>983</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>976</v>
@@ -17756,7 +17682,7 @@
         <v>965</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16">
@@ -17801,22 +17727,22 @@
     </row>
     <row r="12" spans="2:9" ht="32">
       <c r="B12" s="64" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D12" s="66">
         <v>64</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16">
@@ -17936,7 +17862,7 @@
         <v>70</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="16">
@@ -17956,7 +17882,7 @@
         <v>974</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="16">
@@ -17988,24 +17914,24 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="2:7" ht="16">
-      <c r="B22" s="185" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
+      <c r="B22" s="186" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
     </row>
     <row r="23" spans="2:7" ht="67.5" customHeight="1">
-      <c r="B23" s="183" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
+      <c r="B23" s="184" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
     </row>
     <row r="24" spans="2:7" ht="16">
       <c r="B24" s="8"/>
@@ -18016,28 +17942,28 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="2:7" ht="16">
-      <c r="B25" s="185" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
+      <c r="B25" s="186" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="26" spans="2:7" ht="76.5" customHeight="1">
-      <c r="B26" s="183" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
+      <c r="B26" s="184" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
     </row>
     <row r="28" spans="2:7" ht="16">
       <c r="B28" s="2" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="27" customHeight="1">
@@ -18051,10 +17977,10 @@
         <v>977</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>976</v>
@@ -18234,22 +18160,22 @@
     </row>
     <row r="39" spans="2:7" ht="48">
       <c r="B39" s="64" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D39" s="66">
         <v>64</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="F39" s="66" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="16">
@@ -18427,24 +18353,24 @@
       <c r="G49" s="60"/>
     </row>
     <row r="50" spans="2:7" ht="16">
-      <c r="B50" s="185" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C50" s="185"/>
-      <c r="D50" s="185"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="185"/>
-      <c r="G50" s="185"/>
+      <c r="B50" s="186" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C50" s="186"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
     </row>
     <row r="51" spans="2:7" ht="148.5" customHeight="1">
-      <c r="B51" s="183" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C51" s="184"/>
-      <c r="D51" s="184"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="184"/>
-      <c r="G51" s="184"/>
+      <c r="B51" s="184" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C51" s="185"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="185"/>
     </row>
     <row r="52" spans="2:7" ht="16">
       <c r="B52" s="8"/>
@@ -18484,12 +18410,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" topLeftCell="B14" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5"/>
@@ -18505,15 +18431,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="32" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="30"/>
     </row>
     <row r="4" spans="2:7">
@@ -18589,10 +18515,10 @@
     </row>
     <row r="9" spans="2:7" s="73" customFormat="1" ht="32">
       <c r="B9" s="64" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="D9" s="66">
         <v>64</v>
@@ -18601,7 +18527,7 @@
         <v>72</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16">
@@ -18627,26 +18553,26 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:7" ht="16">
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="186" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
     </row>
     <row r="13" spans="2:7" ht="55.5" customHeight="1">
-      <c r="B13" s="183" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
+      <c r="B13" s="184" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="143" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -18799,12 +18725,12 @@
       </c>
       <c r="F24" s="53"/>
     </row>
-    <row r="25" spans="2:6" s="73" customFormat="1" ht="32">
+    <row r="25" spans="2:6" s="73" customFormat="1" ht="47.5" customHeight="1">
       <c r="B25" s="64" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D25" s="66">
         <v>64</v>
@@ -18813,7 +18739,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="96">
@@ -18841,22 +18767,22 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6" ht="16">
-      <c r="B28" s="185" t="s">
+      <c r="B28" s="186" t="s">
         <v>495</v>
       </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
     </row>
     <row r="29" spans="2:6" ht="106" customHeight="1">
-      <c r="B29" s="183" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
+      <c r="B29" s="184" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
     </row>
     <row r="30" spans="2:6" ht="16">
       <c r="B30" s="8"/>
@@ -18866,145 +18792,133 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" ht="16">
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="192" t="s">
         <v>287</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="197" t="s">
+      <c r="B33" s="194" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="197" t="s">
+      <c r="B34" s="194" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="202" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C35" s="203"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="204"/>
+      <c r="B35" s="197" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="199"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="201" t="s">
+      <c r="B36" s="196" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="197" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
+      <c r="B37" s="194" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
     </row>
     <row r="38" spans="2:6" ht="17.149999999999999" customHeight="1">
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="194" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="198"/>
-      <c r="D38" s="198"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="198"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
     </row>
     <row r="39" spans="2:6" ht="30.65" customHeight="1">
-      <c r="B39" s="197" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C39" s="198"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
+      <c r="B39" s="194" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
     </row>
     <row r="40" spans="2:6" ht="39.65" customHeight="1">
-      <c r="B40" s="197" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
+      <c r="B40" s="194" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
     </row>
     <row r="41" spans="2:6" ht="32.15" customHeight="1">
-      <c r="B41" s="197" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
+      <c r="B41" s="194" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
     </row>
     <row r="42" spans="2:6" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B42" s="191" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="193"/>
+      <c r="B42" s="200" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C42" s="201"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="202"/>
     </row>
     <row r="43" spans="2:6" ht="12" customHeight="1">
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="200" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="193"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="202"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="203" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="196"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B35:F35"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B37:F37"/>
@@ -19013,11 +18927,23 @@
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19046,15 +18972,15 @@
     </row>
     <row r="2" spans="1:6" ht="16">
       <c r="A2" s="32"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="73"/>
@@ -19110,10 +19036,10 @@
     </row>
     <row r="7" spans="1:6" s="73" customFormat="1" ht="32">
       <c r="B7" s="64" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D7" s="66">
         <v>64</v>
@@ -19122,7 +19048,7 @@
         <v>72</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
@@ -19135,23 +19061,23 @@
     </row>
     <row r="9" spans="1:6" ht="16">
       <c r="A9" s="73"/>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="186" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
     </row>
     <row r="10" spans="1:6" ht="30.65" customHeight="1">
       <c r="A10" s="73"/>
-      <c r="B10" s="183" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
+      <c r="B10" s="184" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="73"/>
@@ -19164,7 +19090,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="73"/>
       <c r="B12" s="143" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="73"/>
@@ -19313,10 +19239,10 @@
     </row>
     <row r="21" spans="1:6" s="73" customFormat="1" ht="32">
       <c r="B21" s="64" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="D21" s="66">
         <v>64</v>
@@ -19325,7 +19251,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16">
@@ -19372,23 +19298,23 @@
     </row>
     <row r="25" spans="1:6" ht="16">
       <c r="A25" s="73"/>
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="186" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
     </row>
     <row r="26" spans="1:6" ht="105" customHeight="1">
       <c r="A26" s="73"/>
-      <c r="B26" s="183" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
+      <c r="B26" s="184" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
